--- a/exercicios/MegaSena/resultados_mega_sena.xlsx
+++ b/exercicios/MegaSena/resultados_mega_sena.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A755"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,33 +445,5262 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>-=-=-= SORTEANDO 3 JOGOS -=-=-=</t>
+          <t>-=-=-= SORTEANDO 750 JOGOS -=-=-=</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Jogo 1: [3, 11, 15, 24, 28, 48, 63, 65, 66, 67, 73, 75, 78, 80, 81, 85, 86, 90, 91, 92]</t>
+          <t xml:space="preserve"> Jogo 1: [8, 9, 10, 18, 19, 22, 38, 41, 60, 62, 65, 66, 72, 75, 76, 89, 90, 92, 93, 100]</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Jogo 2: [7, 11, 17, 18, 23, 37, 42, 43, 49, 56, 60, 61, 69, 76, 79, 80, 82, 86, 92, 98]</t>
+          <t xml:space="preserve"> Jogo 2: [5, 10, 11, 15, 26, 37, 41, 43, 51, 52, 55, 60, 62, 66, 71, 79, 81, 82, 86, 100]</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Jogo 3: [19, 21, 24, 36, 42, 45, 48, 53, 59, 64, 68, 69, 76, 80, 82, 86, 90, 92, 98, 100]</t>
+          <t xml:space="preserve"> Jogo 3: [2, 5, 13, 17, 18, 21, 38, 42, 49, 51, 52, 54, 55, 58, 60, 65, 67, 76, 81, 95]</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 4: [2, 15, 18, 24, 43, 45, 47, 49, 58, 59, 62, 65, 67, 71, 77, 80, 81, 82, 85, 93]</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 5: [1, 7, 8, 9, 21, 26, 33, 35, 36, 41, 50, 55, 58, 59, 62, 64, 70, 84, 97, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 6: [9, 10, 12, 14, 24, 35, 45, 51, 52, 56, 57, 58, 59, 62, 66, 69, 78, 79, 81, 91]</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 7: [1, 3, 6, 16, 29, 39, 45, 50, 56, 63, 64, 66, 69, 75, 84, 87, 93, 94, 96, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 8: [1, 6, 7, 16, 17, 23, 25, 27, 32, 45, 50, 51, 55, 58, 61, 69, 71, 73, 94, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 9: [2, 8, 10, 12, 17, 23, 41, 42, 45, 46, 52, 63, 65, 68, 76, 79, 83, 87, 90, 93]</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 10: [1, 5, 8, 19, 22, 50, 52, 56, 60, 62, 64, 65, 68, 69, 70, 73, 83, 87, 98, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 11: [1, 6, 7, 11, 18, 20, 33, 34, 49, 59, 61, 63, 67, 76, 82, 85, 93, 96, 97, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 12: [8, 17, 18, 20, 21, 27, 29, 38, 40, 42, 45, 56, 66, 68, 72, 74, 80, 86, 88, 91]</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 13: [5, 7, 12, 15, 16, 32, 37, 43, 46, 49, 64, 69, 70, 77, 82, 85, 87, 91, 92, 96]</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 14: [1, 16, 17, 18, 19, 21, 25, 27, 30, 41, 42, 43, 50, 60, 62, 66, 70, 76, 88, 89]</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 15: [6, 10, 11, 19, 20, 40, 41, 42, 57, 59, 65, 66, 73, 74, 78, 86, 91, 93, 97, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 16: [13, 25, 29, 30, 33, 40, 44, 46, 50, 54, 57, 62, 68, 72, 73, 83, 86, 88, 89, 97]</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 17: [3, 5, 7, 11, 12, 25, 26, 28, 29, 32, 38, 40, 46, 58, 63, 66, 70, 89, 96, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 18: [4, 6, 7, 13, 15, 18, 22, 24, 34, 35, 38, 43, 53, 58, 62, 71, 76, 80, 82, 83]</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 19: [10, 15, 16, 22, 24, 27, 31, 35, 38, 40, 41, 42, 48, 53, 55, 61, 73, 77, 92, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 20: [2, 14, 18, 21, 26, 27, 29, 30, 38, 41, 48, 64, 67, 70, 75, 83, 84, 91, 93, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 21: [4, 9, 10, 11, 26, 29, 30, 36, 44, 45, 46, 47, 51, 53, 55, 59, 69, 70, 76, 82]</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 22: [6, 8, 12, 21, 27, 33, 34, 49, 50, 52, 54, 55, 62, 64, 67, 74, 91, 94, 96, 97]</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 23: [4, 7, 11, 15, 16, 33, 34, 37, 38, 42, 43, 50, 53, 58, 62, 77, 81, 90, 96, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 24: [15, 16, 26, 28, 32, 33, 44, 48, 51, 56, 61, 65, 72, 76, 79, 87, 91, 93, 95, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 25: [1, 2, 9, 10, 17, 24, 32, 36, 39, 42, 47, 50, 54, 58, 62, 64, 66, 71, 89, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 26: [2, 3, 5, 23, 25, 35, 38, 39, 47, 59, 60, 69, 71, 72, 73, 74, 76, 85, 90, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 27: [6, 7, 14, 15, 23, 24, 27, 42, 45, 47, 55, 61, 62, 69, 72, 75, 78, 85, 88, 97]</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 28: [2, 8, 18, 28, 30, 36, 41, 46, 52, 54, 55, 57, 60, 66, 72, 73, 77, 83, 88, 97]</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 29: [7, 8, 11, 14, 16, 17, 23, 28, 37, 38, 40, 51, 68, 79, 81, 84, 85, 93, 95, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 30: [6, 9, 23, 26, 27, 36, 44, 50, 53, 55, 56, 58, 64, 65, 66, 72, 78, 87, 89, 93]</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 31: [1, 23, 26, 28, 33, 35, 39, 41, 45, 55, 57, 58, 68, 72, 79, 80, 86, 93, 98, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 32: [6, 7, 12, 15, 17, 28, 29, 38, 44, 49, 50, 58, 65, 69, 77, 79, 80, 87, 91, 95]</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 33: [5, 15, 18, 21, 24, 27, 32, 36, 37, 40, 44, 46, 53, 71, 74, 77, 89, 90, 95, 97]</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 34: [11, 20, 29, 32, 34, 36, 40, 43, 45, 46, 56, 67, 76, 77, 78, 83, 85, 88, 93, 97]</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 35: [1, 3, 6, 9, 10, 18, 24, 26, 27, 45, 48, 51, 65, 72, 74, 77, 94, 97, 99, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 36: [12, 13, 17, 19, 20, 27, 37, 41, 43, 47, 52, 59, 60, 69, 76, 77, 81, 86, 96, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 37: [4, 6, 17, 18, 19, 20, 23, 25, 42, 44, 49, 54, 56, 57, 60, 68, 72, 78, 82, 97]</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 38: [1, 4, 8, 14, 16, 21, 28, 32, 34, 36, 42, 43, 45, 54, 56, 60, 80, 84, 94, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 39: [2, 4, 9, 10, 13, 21, 32, 34, 39, 41, 59, 68, 73, 76, 78, 83, 90, 94, 97, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 40: [5, 6, 13, 19, 24, 27, 36, 39, 49, 55, 63, 67, 69, 73, 80, 86, 90, 91, 94, 97]</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 41: [2, 3, 6, 7, 12, 19, 21, 31, 32, 36, 45, 46, 47, 48, 50, 54, 64, 96, 99, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 42: [2, 4, 8, 10, 16, 18, 21, 28, 47, 48, 53, 57, 64, 65, 68, 76, 77, 81, 88, 89]</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 43: [5, 9, 10, 13, 16, 19, 24, 38, 40, 47, 52, 64, 78, 79, 81, 85, 88, 94, 95, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 44: [8, 11, 13, 16, 21, 22, 35, 37, 44, 58, 59, 63, 69, 70, 82, 83, 88, 92, 94, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 45: [14, 25, 27, 29, 32, 37, 42, 45, 53, 55, 64, 65, 73, 76, 77, 79, 80, 87, 92, 94]</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 46: [4, 6, 7, 15, 33, 34, 36, 38, 43, 52, 59, 62, 63, 69, 73, 80, 82, 93, 94, 96]</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 47: [5, 6, 8, 11, 16, 21, 29, 31, 32, 35, 36, 56, 58, 60, 61, 63, 70, 76, 86, 87]</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 48: [14, 16, 30, 31, 32, 33, 34, 40, 43, 45, 56, 59, 63, 65, 76, 83, 90, 94, 99, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 49: [3, 4, 16, 18, 22, 37, 54, 55, 57, 66, 69, 70, 73, 76, 81, 85, 88, 89, 99, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 50: [2, 5, 8, 10, 12, 13, 16, 18, 23, 27, 29, 30, 31, 41, 62, 69, 71, 91, 93, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 51: [1, 2, 5, 13, 16, 19, 21, 23, 24, 28, 37, 40, 43, 57, 58, 62, 72, 79, 88, 90]</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 52: [9, 14, 17, 21, 24, 25, 27, 28, 31, 34, 47, 68, 69, 75, 84, 86, 87, 93, 99, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 53: [4, 8, 9, 17, 19, 20, 29, 30, 31, 37, 38, 44, 49, 59, 66, 67, 77, 81, 88, 94]</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 54: [1, 2, 5, 9, 13, 25, 27, 28, 30, 34, 45, 47, 48, 49, 50, 56, 59, 68, 82, 94]</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 55: [10, 26, 29, 30, 44, 46, 48, 52, 56, 63, 65, 66, 73, 74, 78, 83, 87, 92, 94, 95]</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 56: [3, 7, 9, 23, 25, 29, 34, 49, 50, 52, 61, 62, 69, 74, 75, 77, 80, 81, 86, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 57: [12, 16, 20, 26, 29, 43, 44, 45, 53, 57, 62, 64, 70, 78, 82, 84, 87, 91, 94, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 58: [8, 17, 18, 19, 21, 27, 36, 44, 54, 63, 72, 75, 76, 82, 85, 88, 89, 97, 98, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 59: [1, 7, 8, 12, 13, 20, 27, 30, 31, 32, 42, 53, 58, 74, 81, 86, 90, 93, 94, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 60: [9, 13, 16, 23, 30, 31, 34, 43, 47, 55, 57, 60, 64, 65, 76, 82, 87, 89, 96, 97]</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 61: [9, 16, 25, 33, 34, 37, 39, 40, 45, 46, 48, 51, 55, 65, 70, 71, 72, 87, 88, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 62: [11, 13, 19, 23, 24, 32, 34, 46, 47, 51, 53, 57, 66, 70, 72, 73, 84, 90, 97, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 63: [3, 10, 15, 17, 19, 23, 38, 43, 49, 55, 57, 58, 61, 62, 63, 69, 87, 89, 90, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 64: [1, 9, 12, 17, 22, 30, 33, 37, 40, 42, 43, 47, 49, 54, 57, 61, 68, 70, 98, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 65: [4, 9, 12, 14, 18, 22, 25, 26, 35, 37, 49, 55, 57, 65, 68, 77, 82, 89, 97, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 66: [5, 8, 10, 14, 15, 21, 23, 52, 54, 55, 60, 72, 73, 76, 77, 80, 82, 89, 96, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 67: [5, 6, 7, 10, 14, 26, 32, 41, 46, 47, 48, 49, 52, 60, 69, 73, 75, 76, 92, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 68: [10, 11, 15, 19, 21, 36, 42, 47, 52, 54, 57, 63, 64, 68, 73, 76, 78, 79, 84, 96]</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 69: [4, 22, 27, 34, 39, 41, 42, 44, 48, 55, 58, 64, 74, 78, 89, 91, 92, 97, 98, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 70: [1, 6, 8, 12, 15, 16, 19, 20, 23, 24, 25, 29, 36, 51, 59, 60, 61, 72, 86, 92]</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 71: [1, 2, 4, 9, 12, 30, 35, 43, 44, 50, 59, 60, 64, 75, 84, 86, 88, 90, 96, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 72: [7, 11, 14, 18, 23, 29, 33, 36, 43, 47, 48, 51, 54, 61, 63, 64, 74, 82, 85, 88]</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 73: [3, 12, 14, 29, 31, 32, 37, 44, 45, 51, 59, 72, 73, 75, 79, 85, 87, 91, 97, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 74: [12, 16, 18, 19, 20, 30, 32, 35, 36, 43, 55, 68, 70, 73, 74, 79, 87, 88, 97, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 75: [4, 7, 8, 12, 16, 21, 22, 27, 28, 29, 37, 40, 47, 52, 54, 55, 58, 59, 75, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 76: [1, 7, 8, 14, 15, 28, 36, 37, 41, 42, 43, 53, 54, 63, 64, 68, 82, 85, 87, 95]</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 77: [5, 8, 14, 16, 17, 19, 28, 33, 35, 38, 40, 42, 46, 52, 53, 60, 62, 63, 82, 97]</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 78: [3, 6, 8, 17, 20, 23, 37, 40, 64, 68, 69, 76, 77, 78, 79, 81, 84, 85, 91, 93]</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 79: [5, 13, 19, 23, 25, 28, 39, 41, 42, 43, 45, 50, 51, 55, 60, 72, 81, 87, 92, 97]</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 80: [3, 8, 9, 11, 16, 26, 34, 35, 40, 48, 57, 63, 68, 77, 82, 84, 85, 87, 95, 96]</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 81: [7, 13, 14, 16, 25, 28, 35, 41, 42, 47, 56, 57, 65, 69, 70, 73, 81, 88, 94, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 82: [4, 17, 26, 27, 33, 40, 49, 53, 60, 62, 64, 71, 74, 77, 80, 85, 92, 96, 97, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 83: [2, 3, 5, 14, 15, 20, 24, 28, 34, 38, 43, 49, 50, 52, 59, 62, 67, 86, 88, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 84: [1, 5, 6, 13, 15, 20, 30, 33, 51, 59, 60, 61, 79, 80, 82, 83, 84, 86, 98, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 85: [1, 4, 7, 15, 16, 25, 26, 41, 45, 63, 67, 71, 76, 77, 84, 85, 95, 98, 99, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 86: [3, 8, 10, 18, 19, 27, 38, 41, 44, 45, 49, 51, 58, 60, 75, 81, 82, 89, 96, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 87: [8, 10, 23, 40, 41, 42, 43, 49, 52, 60, 63, 66, 70, 71, 75, 86, 90, 91, 93, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 88: [1, 4, 12, 16, 20, 22, 32, 33, 36, 38, 50, 53, 61, 63, 76, 84, 88, 92, 96, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 89: [12, 16, 19, 22, 28, 41, 42, 48, 52, 57, 58, 65, 67, 68, 78, 80, 83, 84, 90, 94]</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 90: [8, 12, 20, 23, 26, 30, 31, 34, 37, 50, 53, 56, 68, 75, 84, 85, 87, 92, 93, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 91: [9, 10, 13, 25, 27, 28, 29, 33, 34, 36, 39, 40, 41, 43, 61, 67, 68, 83, 84, 96]</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 92: [1, 9, 20, 22, 23, 24, 42, 43, 53, 56, 60, 65, 68, 77, 79, 85, 86, 95, 97, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 93: [5, 11, 15, 21, 25, 38, 44, 47, 49, 51, 56, 58, 61, 66, 75, 80, 84, 85, 87, 97]</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 94: [9, 12, 21, 24, 29, 30, 33, 46, 52, 68, 72, 73, 78, 79, 82, 86, 87, 90, 99, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 95: [4, 7, 10, 11, 13, 15, 20, 21, 29, 33, 35, 53, 57, 66, 76, 79, 80, 83, 84, 94]</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 96: [2, 3, 11, 13, 14, 16, 18, 23, 34, 41, 44, 52, 56, 66, 67, 70, 73, 86, 87, 95]</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 97: [3, 8, 18, 23, 25, 29, 35, 43, 46, 49, 51, 55, 62, 83, 84, 85, 89, 92, 94, 95]</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 98: [2, 10, 13, 15, 16, 34, 35, 37, 38, 42, 44, 45, 48, 56, 58, 84, 89, 90, 93, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 99: [19, 28, 33, 34, 43, 44, 53, 55, 58, 62, 64, 69, 71, 72, 79, 80, 88, 95, 98, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 100: [1, 10, 18, 20, 26, 31, 36, 55, 57, 70, 73, 74, 75, 81, 86, 88, 89, 93, 94, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 101: [5, 17, 20, 23, 28, 32, 34, 35, 36, 40, 48, 57, 59, 63, 75, 82, 85, 88, 94, 95]</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 102: [1, 3, 6, 9, 16, 20, 21, 25, 27, 29, 46, 48, 55, 58, 64, 67, 70, 84, 90, 91]</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 103: [2, 4, 10, 15, 17, 19, 28, 34, 37, 43, 53, 55, 56, 64, 77, 78, 84, 85, 91, 96]</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 104: [4, 6, 8, 15, 26, 27, 33, 34, 35, 36, 45, 46, 62, 69, 74, 84, 85, 87, 92, 94]</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 105: [5, 10, 13, 15, 17, 34, 39, 40, 43, 48, 60, 67, 69, 81, 84, 86, 88, 92, 93, 95]</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 106: [6, 12, 17, 27, 31, 38, 40, 41, 43, 48, 59, 64, 67, 73, 74, 75, 83, 93, 97, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 107: [9, 18, 19, 30, 34, 36, 46, 51, 53, 56, 57, 58, 62, 64, 82, 87, 88, 90, 93, 95]</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 108: [5, 7, 8, 11, 12, 30, 33, 36, 37, 49, 51, 55, 66, 69, 70, 77, 87, 90, 91, 97]</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 109: [5, 7, 12, 13, 21, 30, 45, 46, 55, 59, 66, 68, 76, 80, 87, 94, 95, 98, 99, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 110: [6, 12, 16, 19, 25, 26, 27, 30, 32, 42, 51, 52, 56, 57, 61, 65, 77, 87, 93, 96]</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 111: [3, 7, 8, 10, 12, 16, 20, 23, 24, 29, 33, 41, 45, 48, 52, 56, 60, 69, 84, 96]</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 112: [10, 15, 16, 19, 24, 26, 28, 31, 33, 38, 51, 55, 57, 74, 77, 79, 80, 84, 87, 95]</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 113: [2, 3, 4, 5, 6, 14, 21, 22, 36, 40, 41, 42, 44, 51, 60, 80, 83, 85, 94, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 114: [1, 2, 8, 11, 20, 38, 42, 43, 47, 54, 57, 65, 71, 74, 76, 78, 91, 95, 98, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 115: [22, 28, 30, 34, 37, 38, 40, 44, 46, 50, 57, 61, 66, 73, 75, 78, 81, 82, 93, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 116: [2, 3, 5, 26, 28, 29, 35, 39, 41, 43, 47, 50, 56, 63, 67, 74, 80, 85, 96, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 117: [6, 7, 11, 12, 13, 21, 24, 26, 37, 38, 39, 47, 52, 57, 79, 85, 86, 89, 90, 94]</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 118: [1, 2, 4, 10, 12, 14, 15, 16, 26, 44, 48, 58, 60, 64, 70, 75, 79, 89, 91, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 119: [9, 12, 14, 23, 30, 34, 39, 42, 43, 50, 56, 60, 61, 62, 64, 77, 86, 93, 94, 95]</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 120: [2, 12, 19, 24, 28, 35, 40, 45, 50, 52, 56, 66, 67, 69, 73, 75, 78, 79, 82, 88]</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 121: [1, 4, 6, 8, 12, 14, 15, 20, 22, 32, 33, 40, 48, 49, 52, 65, 69, 91, 95, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 122: [3, 11, 22, 24, 27, 28, 30, 37, 39, 43, 54, 55, 57, 68, 69, 81, 87, 92, 94, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 123: [4, 8, 11, 15, 16, 28, 30, 35, 46, 48, 53, 57, 64, 66, 67, 72, 77, 89, 90, 94]</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 124: [1, 5, 12, 16, 17, 19, 21, 23, 26, 31, 33, 52, 63, 67, 70, 72, 84, 94, 95, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 125: [1, 3, 9, 14, 15, 30, 31, 32, 35, 46, 47, 55, 61, 64, 76, 78, 89, 90, 95, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 126: [6, 14, 21, 31, 34, 35, 36, 38, 39, 41, 43, 55, 65, 67, 71, 73, 74, 78, 81, 84]</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 127: [20, 29, 30, 36, 41, 44, 46, 50, 55, 59, 61, 63, 73, 74, 76, 79, 80, 86, 91, 92]</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 128: [7, 23, 26, 34, 40, 42, 45, 49, 57, 58, 63, 66, 67, 68, 69, 75, 84, 87, 88, 95]</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 129: [2, 5, 7, 9, 10, 12, 14, 23, 27, 28, 35, 41, 46, 54, 62, 68, 76, 84, 91, 92]</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 130: [4, 6, 8, 13, 22, 29, 37, 50, 54, 55, 59, 60, 64, 68, 77, 79, 82, 84, 85, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 131: [1, 10, 19, 24, 27, 31, 36, 39, 46, 50, 56, 65, 69, 75, 79, 81, 87, 88, 91, 92]</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 132: [4, 8, 14, 15, 18, 20, 23, 39, 40, 43, 51, 55, 59, 61, 62, 65, 73, 81, 89, 92]</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 133: [3, 6, 8, 9, 11, 12, 16, 21, 25, 32, 49, 55, 56, 57, 63, 70, 84, 88, 91, 94]</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 134: [2, 3, 4, 5, 12, 14, 15, 35, 46, 55, 56, 60, 70, 72, 81, 84, 85, 87, 90, 97]</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 135: [3, 6, 14, 17, 23, 27, 36, 37, 38, 53, 62, 63, 66, 68, 70, 87, 95, 96, 97, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 136: [15, 20, 21, 31, 34, 42, 49, 54, 55, 62, 70, 78, 81, 83, 88, 90, 91, 92, 96, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 137: [4, 7, 18, 22, 31, 34, 35, 38, 46, 47, 50, 52, 55, 56, 70, 75, 83, 94, 99, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 138: [9, 16, 17, 19, 22, 34, 38, 42, 47, 51, 60, 63, 69, 70, 72, 73, 80, 82, 89, 94]</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 139: [3, 5, 17, 21, 28, 31, 38, 43, 49, 52, 53, 59, 63, 64, 65, 75, 79, 81, 93, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 140: [2, 5, 6, 17, 19, 21, 26, 31, 32, 34, 38, 40, 48, 49, 60, 61, 62, 74, 82, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 141: [3, 10, 11, 12, 17, 29, 31, 34, 43, 44, 47, 52, 57, 70, 76, 80, 85, 87, 95, 96]</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 142: [8, 9, 14, 19, 21, 22, 24, 27, 32, 48, 58, 72, 75, 78, 79, 80, 87, 90, 91, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 143: [13, 14, 20, 29, 36, 38, 39, 46, 50, 59, 60, 63, 64, 66, 69, 76, 79, 80, 95, 97]</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 144: [2, 6, 12, 18, 42, 53, 57, 58, 67, 72, 74, 75, 79, 80, 83, 85, 86, 89, 91, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 145: [2, 18, 20, 28, 39, 41, 46, 49, 54, 56, 72, 79, 81, 85, 86, 87, 90, 95, 96, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 146: [2, 4, 5, 11, 21, 26, 28, 32, 40, 48, 53, 54, 59, 62, 65, 76, 78, 79, 90, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 147: [3, 4, 7, 12, 13, 21, 27, 44, 52, 53, 57, 60, 65, 73, 79, 80, 81, 87, 92, 94]</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 148: [3, 8, 17, 24, 26, 30, 31, 42, 44, 48, 55, 61, 62, 69, 73, 77, 82, 84, 93, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 149: [2, 10, 12, 14, 16, 25, 31, 34, 42, 49, 53, 58, 63, 64, 68, 82, 83, 84, 87, 89]</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 150: [6, 13, 17, 21, 29, 39, 42, 46, 54, 57, 60, 72, 76, 80, 81, 89, 91, 92, 94, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 151: [6, 9, 25, 31, 42, 48, 62, 63, 64, 66, 69, 72, 74, 78, 86, 90, 91, 92, 93, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 152: [12, 18, 21, 23, 24, 25, 30, 32, 47, 50, 52, 53, 55, 59, 60, 67, 75, 80, 87, 94]</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 153: [1, 8, 12, 21, 22, 28, 29, 31, 40, 41, 43, 48, 51, 66, 67, 72, 74, 83, 92, 95]</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 154: [4, 23, 25, 30, 41, 42, 44, 49, 55, 60, 62, 64, 68, 70, 71, 79, 80, 84, 93, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 155: [13, 16, 24, 27, 28, 40, 43, 51, 57, 58, 61, 62, 74, 82, 85, 86, 88, 89, 99, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 156: [26, 29, 31, 36, 41, 49, 52, 53, 56, 61, 62, 69, 82, 84, 87, 89, 90, 91, 94, 95]</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 157: [2, 5, 11, 19, 29, 40, 45, 48, 53, 54, 55, 59, 60, 64, 66, 81, 88, 92, 97, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 158: [7, 10, 11, 15, 18, 21, 22, 25, 26, 27, 30, 34, 50, 64, 67, 74, 75, 77, 80, 90]</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 159: [2, 3, 12, 18, 23, 29, 30, 34, 39, 41, 59, 63, 68, 69, 72, 74, 77, 81, 83, 88]</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 160: [4, 5, 17, 26, 27, 35, 39, 49, 55, 58, 60, 62, 72, 75, 86, 88, 92, 95, 96, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 161: [3, 5, 6, 11, 13, 15, 18, 26, 32, 35, 36, 40, 48, 54, 60, 64, 80, 91, 98, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 162: [2, 6, 8, 9, 13, 17, 20, 21, 22, 26, 27, 34, 38, 44, 48, 53, 55, 59, 70, 85]</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 163: [6, 15, 17, 21, 25, 27, 28, 34, 40, 45, 46, 53, 64, 71, 78, 82, 83, 84, 87, 89]</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 164: [4, 5, 10, 15, 19, 22, 24, 26, 34, 37, 44, 48, 59, 63, 67, 82, 89, 91, 97, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 165: [1, 2, 3, 5, 7, 8, 11, 30, 33, 44, 56, 61, 63, 82, 83, 84, 86, 89, 96, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 166: [7, 8, 20, 24, 25, 28, 32, 43, 45, 51, 63, 68, 70, 72, 77, 84, 93, 94, 96, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 167: [1, 2, 14, 16, 21, 23, 26, 27, 34, 36, 46, 47, 60, 75, 81, 83, 85, 95, 96, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 168: [3, 4, 7, 8, 9, 13, 17, 24, 27, 34, 39, 41, 47, 57, 64, 66, 67, 68, 89, 96]</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 169: [2, 8, 13, 14, 21, 30, 33, 43, 52, 56, 58, 59, 61, 66, 69, 79, 84, 85, 94, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 170: [3, 6, 16, 18, 23, 25, 28, 29, 34, 35, 39, 46, 52, 53, 56, 57, 59, 86, 98, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 171: [4, 5, 10, 14, 18, 22, 26, 28, 31, 42, 43, 51, 55, 58, 62, 63, 65, 68, 84, 88]</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 172: [7, 24, 32, 40, 42, 44, 45, 54, 61, 62, 66, 72, 73, 76, 77, 79, 80, 85, 96, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 173: [7, 8, 11, 22, 33, 35, 38, 42, 47, 54, 58, 60, 64, 65, 66, 70, 72, 85, 89, 93]</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 174: [5, 6, 13, 14, 16, 29, 42, 45, 48, 50, 54, 56, 57, 64, 81, 84, 89, 95, 96, 97]</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 175: [12, 13, 14, 21, 28, 36, 37, 42, 45, 58, 60, 65, 67, 71, 72, 78, 82, 85, 95, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 176: [3, 15, 16, 20, 22, 25, 26, 27, 32, 47, 49, 52, 56, 75, 83, 86, 93, 94, 98, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 177: [5, 7, 9, 18, 19, 26, 30, 37, 46, 52, 59, 61, 68, 73, 76, 80, 81, 87, 88, 95]</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 178: [8, 11, 13, 28, 30, 36, 40, 41, 43, 50, 60, 69, 83, 84, 85, 87, 91, 93, 98, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 179: [3, 6, 8, 13, 19, 21, 22, 30, 45, 47, 56, 59, 60, 61, 63, 70, 80, 86, 87, 91]</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 180: [1, 2, 9, 17, 21, 27, 34, 46, 48, 49, 57, 63, 64, 70, 71, 75, 77, 84, 89, 92]</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 181: [5, 6, 8, 12, 16, 19, 20, 22, 23, 25, 36, 51, 55, 62, 71, 72, 81, 86, 89, 97]</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 182: [9, 10, 20, 23, 25, 26, 36, 38, 43, 46, 48, 62, 68, 73, 79, 82, 87, 90, 99, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 183: [5, 21, 23, 27, 29, 31, 40, 41, 42, 43, 49, 56, 57, 60, 68, 75, 76, 85, 86, 87]</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 184: [5, 11, 18, 23, 26, 29, 33, 34, 40, 49, 61, 62, 65, 72, 77, 85, 87, 89, 90, 91]</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 185: [3, 10, 13, 14, 19, 21, 31, 35, 36, 42, 46, 49, 52, 57, 64, 67, 69, 89, 93, 95]</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 186: [4, 8, 10, 12, 13, 18, 24, 32, 36, 48, 64, 72, 74, 77, 78, 83, 84, 93, 94, 95]</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 187: [8, 19, 21, 33, 34, 37, 43, 48, 49, 52, 59, 63, 67, 68, 75, 78, 82, 85, 95, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 188: [2, 16, 20, 21, 22, 23, 25, 26, 29, 35, 41, 57, 60, 68, 70, 71, 76, 85, 96, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 189: [4, 32, 40, 41, 45, 47, 52, 53, 56, 58, 60, 64, 65, 67, 76, 81, 83, 87, 88, 90]</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 190: [1, 3, 7, 10, 11, 14, 26, 37, 41, 50, 51, 59, 67, 72, 79, 82, 88, 90, 91, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 191: [7, 11, 13, 21, 24, 26, 27, 32, 40, 43, 44, 48, 52, 59, 61, 72, 77, 78, 84, 85]</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 192: [3, 4, 6, 17, 21, 23, 33, 36, 38, 53, 73, 76, 77, 79, 80, 81, 92, 94, 96, 97]</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 193: [9, 10, 11, 15, 28, 30, 33, 37, 41, 42, 46, 53, 59, 64, 66, 68, 78, 87, 94, 97]</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 194: [1, 13, 18, 20, 28, 30, 37, 38, 42, 49, 52, 57, 62, 64, 67, 69, 83, 85, 95, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 195: [6, 9, 14, 16, 19, 20, 24, 29, 36, 42, 49, 60, 74, 75, 80, 83, 89, 91, 93, 94]</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 196: [7, 11, 16, 23, 42, 44, 45, 51, 52, 55, 56, 58, 60, 63, 69, 76, 78, 81, 97, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 197: [8, 10, 12, 15, 22, 28, 29, 35, 39, 41, 54, 59, 60, 71, 73, 78, 85, 97, 98, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 198: [1, 5, 8, 13, 14, 24, 28, 31, 37, 40, 42, 45, 46, 61, 65, 80, 82, 86, 93, 96]</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 199: [4, 6, 8, 11, 19, 23, 39, 44, 45, 46, 52, 53, 61, 70, 71, 80, 84, 88, 91, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 200: [5, 6, 11, 13, 16, 17, 23, 24, 32, 36, 39, 40, 43, 44, 48, 60, 71, 75, 83, 92]</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 201: [4, 11, 13, 15, 17, 19, 20, 32, 36, 40, 41, 46, 52, 55, 69, 75, 85, 90, 93, 96]</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 202: [8, 13, 21, 22, 32, 33, 36, 37, 40, 41, 52, 56, 58, 63, 64, 69, 71, 76, 77, 82]</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 203: [5, 14, 15, 20, 21, 39, 48, 50, 52, 57, 59, 63, 64, 70, 75, 88, 89, 92, 94, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 204: [13, 17, 21, 24, 25, 27, 28, 40, 51, 53, 57, 59, 76, 78, 79, 80, 81, 88, 96, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 205: [3, 7, 8, 15, 16, 19, 37, 41, 42, 53, 55, 62, 66, 68, 70, 73, 84, 91, 92, 93]</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 206: [3, 10, 30, 36, 40, 42, 45, 46, 50, 52, 55, 56, 59, 72, 75, 81, 90, 91, 93, 94]</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 207: [3, 9, 10, 14, 18, 21, 22, 26, 33, 35, 39, 43, 46, 51, 57, 62, 70, 78, 82, 95]</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 208: [5, 7, 10, 18, 23, 25, 27, 32, 34, 41, 50, 55, 65, 68, 73, 86, 89, 90, 94, 97]</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 209: [10, 12, 13, 17, 24, 26, 35, 44, 47, 51, 59, 65, 66, 71, 78, 81, 86, 93, 97, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 210: [1, 10, 19, 21, 26, 31, 32, 35, 43, 45, 49, 52, 54, 56, 60, 64, 74, 82, 83, 88]</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 211: [11, 19, 21, 24, 36, 37, 42, 43, 45, 51, 52, 55, 60, 63, 70, 76, 80, 84, 88, 91]</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 212: [6, 11, 14, 16, 20, 28, 32, 37, 45, 46, 52, 54, 59, 74, 77, 78, 79, 86, 94, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 213: [2, 4, 5, 9, 20, 25, 31, 45, 47, 48, 55, 59, 64, 67, 80, 86, 93, 95, 97, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 214: [1, 2, 16, 25, 29, 30, 32, 39, 42, 58, 63, 65, 67, 68, 73, 78, 84, 87, 92, 97]</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 215: [9, 13, 15, 19, 21, 22, 25, 29, 32, 46, 49, 52, 54, 55, 60, 65, 71, 79, 80, 94]</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 216: [2, 3, 4, 5, 12, 13, 14, 23, 27, 28, 29, 34, 57, 63, 64, 66, 67, 68, 97, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 217: [4, 9, 11, 16, 17, 27, 29, 31, 32, 40, 48, 52, 56, 60, 64, 65, 68, 86, 95, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 218: [9, 15, 16, 21, 23, 31, 33, 35, 50, 51, 52, 53, 61, 68, 73, 85, 86, 90, 95, 96]</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 219: [1, 10, 14, 20, 33, 34, 35, 38, 45, 47, 54, 61, 67, 73, 74, 79, 81, 82, 87, 92]</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 220: [9, 10, 14, 24, 30, 31, 39, 51, 53, 60, 62, 65, 78, 82, 86, 87, 89, 94, 98, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 221: [1, 15, 16, 24, 25, 33, 37, 44, 49, 57, 63, 68, 70, 72, 78, 79, 82, 91, 94, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 222: [1, 8, 10, 15, 19, 30, 32, 34, 35, 46, 48, 60, 64, 67, 68, 69, 76, 84, 85, 87]</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 223: [3, 5, 17, 18, 19, 21, 37, 41, 44, 53, 62, 63, 66, 71, 76, 77, 85, 93, 98, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 224: [8, 11, 19, 23, 29, 36, 44, 50, 53, 55, 62, 63, 69, 75, 85, 87, 90, 92, 96, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 225: [3, 7, 10, 11, 17, 37, 38, 51, 59, 69, 71, 72, 73, 75, 79, 87, 89, 94, 97, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 226: [2, 11, 22, 23, 24, 25, 29, 37, 39, 43, 45, 50, 59, 60, 67, 73, 77, 78, 79, 85]</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 227: [16, 19, 26, 31, 34, 37, 38, 61, 68, 74, 77, 79, 80, 84, 85, 89, 90, 92, 98, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 228: [6, 11, 14, 28, 40, 41, 45, 52, 53, 63, 65, 66, 68, 88, 89, 91, 93, 94, 97, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 229: [2, 3, 4, 5, 6, 12, 13, 18, 38, 41, 54, 56, 63, 69, 70, 74, 82, 84, 91, 94]</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 230: [1, 3, 9, 13, 15, 17, 20, 29, 33, 34, 43, 52, 59, 60, 61, 64, 67, 77, 80, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 231: [10, 19, 21, 24, 25, 30, 36, 46, 50, 57, 58, 65, 70, 81, 84, 85, 87, 90, 93, 95]</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 232: [1, 12, 25, 27, 29, 30, 45, 48, 49, 55, 57, 59, 60, 70, 76, 84, 86, 87, 89, 90]</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 233: [2, 9, 10, 13, 15, 23, 25, 29, 36, 53, 59, 67, 79, 82, 83, 88, 94, 96, 97, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 234: [2, 9, 12, 18, 28, 32, 46, 48, 55, 65, 67, 70, 72, 74, 78, 82, 84, 93, 94, 95]</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 235: [2, 4, 5, 8, 12, 16, 31, 41, 43, 46, 53, 55, 58, 64, 68, 75, 87, 93, 94, 96]</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 236: [7, 9, 19, 24, 25, 26, 27, 30, 31, 33, 35, 43, 47, 49, 50, 51, 62, 64, 79, 91]</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 237: [3, 10, 24, 27, 32, 35, 44, 50, 51, 54, 63, 64, 65, 66, 67, 70, 84, 87, 89, 95]</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 238: [3, 13, 19, 21, 22, 26, 33, 34, 36, 44, 58, 65, 71, 74, 81, 82, 84, 89, 92, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 239: [1, 21, 22, 26, 29, 33, 38, 41, 43, 51, 58, 65, 67, 68, 82, 88, 89, 91, 93, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 240: [3, 10, 13, 16, 20, 23, 24, 25, 31, 39, 53, 58, 67, 69, 71, 79, 84, 93, 97, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 241: [3, 15, 26, 28, 30, 31, 34, 39, 40, 44, 46, 47, 56, 64, 69, 74, 79, 82, 83, 95]</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 242: [3, 7, 9, 10, 11, 20, 22, 26, 28, 43, 47, 58, 61, 67, 69, 74, 76, 79, 82, 91]</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 243: [4, 11, 16, 17, 18, 19, 24, 35, 39, 43, 46, 47, 51, 55, 65, 67, 68, 71, 73, 95]</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 244: [8, 11, 17, 21, 27, 31, 37, 42, 47, 54, 55, 60, 64, 71, 74, 78, 80, 89, 91, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 245: [2, 12, 18, 19, 22, 37, 39, 41, 42, 56, 57, 63, 65, 74, 78, 80, 88, 89, 95, 97]</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 246: [2, 3, 4, 6, 13, 20, 21, 25, 28, 38, 44, 47, 48, 49, 51, 53, 74, 75, 76, 92]</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 247: [2, 3, 6, 11, 18, 19, 21, 26, 32, 41, 53, 58, 63, 64, 68, 69, 85, 87, 96, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 248: [5, 8, 14, 28, 49, 50, 51, 52, 54, 56, 58, 62, 64, 66, 69, 71, 73, 87, 88, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 249: [6, 8, 11, 27, 30, 32, 35, 38, 39, 43, 47, 63, 70, 73, 74, 75, 80, 85, 92, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 250: [2, 3, 6, 11, 20, 24, 28, 41, 46, 49, 54, 56, 61, 64, 65, 67, 82, 85, 89, 97]</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 251: [7, 12, 14, 15, 17, 22, 24, 31, 47, 51, 52, 53, 59, 62, 72, 79, 80, 83, 89, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 252: [5, 8, 11, 12, 13, 16, 20, 21, 22, 27, 44, 47, 50, 58, 76, 90, 93, 94, 96, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 253: [1, 3, 5, 8, 9, 14, 15, 16, 20, 30, 35, 39, 57, 60, 69, 70, 73, 74, 76, 89]</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 254: [4, 11, 16, 20, 24, 35, 41, 50, 55, 56, 60, 69, 70, 72, 77, 83, 85, 86, 87, 95]</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 255: [8, 12, 25, 28, 31, 32, 44, 45, 51, 54, 58, 63, 67, 71, 80, 87, 89, 90, 92, 93]</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 256: [2, 9, 15, 18, 19, 21, 22, 28, 30, 32, 34, 51, 53, 54, 65, 69, 73, 77, 79, 96]</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 257: [1, 4, 6, 14, 20, 21, 24, 33, 41, 42, 45, 49, 55, 58, 62, 76, 83, 85, 93, 97]</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 258: [1, 5, 18, 22, 27, 30, 32, 34, 35, 38, 44, 46, 50, 59, 64, 65, 72, 85, 88, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 259: [2, 17, 24, 25, 26, 31, 34, 35, 37, 41, 48, 50, 51, 57, 67, 70, 77, 81, 86, 96]</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 260: [6, 10, 11, 14, 22, 25, 29, 30, 34, 40, 41, 42, 44, 55, 64, 73, 78, 86, 88, 90]</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 261: [8, 9, 21, 26, 27, 30, 38, 41, 42, 47, 49, 66, 70, 76, 77, 82, 90, 94, 95, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 262: [4, 5, 15, 16, 17, 21, 24, 27, 28, 42, 44, 45, 52, 54, 55, 64, 73, 74, 86, 96]</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 263: [1, 8, 10, 13, 14, 27, 30, 43, 47, 48, 49, 52, 53, 59, 61, 71, 75, 79, 91, 93]</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 264: [2, 4, 24, 36, 38, 39, 45, 46, 50, 55, 61, 65, 72, 76, 78, 84, 85, 87, 89, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 265: [6, 7, 16, 20, 23, 27, 29, 33, 37, 40, 45, 47, 49, 60, 63, 65, 67, 70, 72, 96]</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 266: [1, 4, 7, 8, 9, 19, 20, 24, 31, 43, 48, 51, 53, 59, 65, 67, 75, 78, 86, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 267: [1, 5, 6, 10, 17, 24, 31, 38, 41, 42, 46, 49, 58, 68, 69, 75, 77, 93, 94, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 268: [2, 3, 6, 7, 15, 16, 29, 38, 47, 54, 63, 66, 69, 74, 77, 83, 87, 88, 98, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 269: [7, 16, 21, 31, 36, 37, 38, 47, 49, 50, 51, 61, 67, 68, 72, 73, 84, 91, 92, 97]</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 270: [6, 11, 12, 24, 28, 32, 34, 39, 40, 44, 48, 58, 59, 65, 73, 85, 88, 90, 95, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 271: [3, 12, 13, 18, 21, 28, 31, 46, 48, 61, 78, 81, 82, 85, 87, 88, 90, 93, 94, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 272: [4, 11, 14, 25, 27, 28, 30, 32, 35, 46, 49, 52, 53, 54, 62, 65, 73, 74, 91, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 273: [7, 12, 13, 17, 20, 22, 25, 39, 41, 45, 47, 58, 60, 74, 76, 77, 78, 82, 88, 94]</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 274: [4, 6, 8, 19, 27, 30, 35, 36, 41, 45, 48, 52, 55, 57, 61, 63, 68, 70, 83, 96]</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 275: [6, 7, 10, 12, 15, 17, 22, 32, 36, 53, 56, 57, 60, 62, 66, 75, 80, 82, 92, 96]</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 276: [5, 6, 17, 19, 20, 27, 34, 37, 42, 50, 56, 59, 60, 63, 66, 75, 80, 90, 98, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 277: [5, 11, 16, 17, 22, 24, 30, 34, 35, 38, 52, 56, 67, 69, 70, 79, 88, 94, 95, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 278: [1, 11, 15, 17, 21, 28, 30, 32, 36, 46, 49, 50, 67, 71, 72, 76, 77, 78, 79, 96]</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 279: [9, 32, 35, 47, 49, 53, 55, 56, 61, 62, 65, 67, 70, 75, 76, 80, 90, 96, 97, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 280: [7, 8, 9, 14, 15, 18, 20, 48, 56, 57, 58, 64, 67, 73, 80, 83, 87, 89, 94, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 281: [4, 12, 14, 15, 17, 27, 33, 36, 41, 46, 47, 53, 57, 63, 64, 75, 79, 82, 86, 95]</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 282: [10, 11, 14, 17, 33, 36, 39, 42, 43, 44, 48, 59, 62, 68, 71, 81, 85, 87, 93, 96]</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 283: [2, 20, 21, 23, 25, 28, 30, 31, 38, 39, 47, 54, 63, 74, 78, 80, 85, 86, 97, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 284: [8, 9, 13, 17, 20, 22, 30, 33, 49, 55, 58, 65, 66, 69, 72, 81, 86, 90, 93, 97]</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 285: [8, 17, 19, 21, 23, 28, 42, 48, 53, 56, 57, 59, 60, 63, 66, 68, 84, 88, 91, 95]</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 286: [9, 17, 25, 33, 35, 37, 43, 51, 52, 57, 59, 65, 66, 67, 68, 75, 76, 86, 88, 93]</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 287: [7, 8, 9, 11, 18, 21, 23, 26, 28, 30, 41, 49, 59, 63, 72, 73, 79, 83, 85, 92]</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 288: [1, 26, 32, 33, 34, 38, 41, 45, 54, 56, 57, 61, 63, 68, 74, 77, 81, 82, 85, 95]</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 289: [3, 4, 5, 10, 13, 15, 16, 33, 45, 47, 50, 57, 58, 64, 69, 73, 74, 86, 88, 92]</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 290: [6, 7, 11, 12, 16, 20, 29, 31, 54, 56, 57, 62, 67, 70, 76, 78, 81, 89, 97, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 291: [11, 12, 14, 17, 23, 26, 32, 40, 41, 42, 51, 57, 61, 62, 73, 83, 89, 90, 94, 95]</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 292: [2, 10, 11, 12, 15, 17, 29, 31, 34, 42, 57, 62, 71, 76, 78, 80, 91, 93, 97, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 293: [2, 8, 21, 24, 34, 36, 42, 44, 46, 48, 49, 56, 58, 64, 67, 79, 81, 89, 94, 97]</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 294: [2, 3, 12, 18, 21, 22, 27, 29, 30, 39, 44, 51, 53, 60, 68, 77, 79, 89, 92, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 295: [1, 12, 16, 17, 25, 36, 38, 43, 47, 48, 52, 55, 62, 68, 77, 80, 87, 97, 99, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 296: [11, 14, 26, 30, 31, 33, 35, 39, 60, 67, 69, 70, 71, 74, 77, 91, 92, 93, 96, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 297: [3, 7, 19, 23, 24, 25, 35, 39, 49, 51, 55, 63, 67, 68, 69, 73, 76, 86, 95, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 298: [11, 16, 34, 35, 39, 44, 52, 53, 55, 62, 64, 65, 66, 74, 80, 92, 95, 96, 97, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 299: [1, 3, 4, 6, 17, 20, 27, 29, 32, 36, 49, 51, 56, 60, 74, 78, 80, 87, 92, 97]</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 300: [5, 10, 11, 12, 16, 19, 30, 35, 37, 43, 45, 56, 59, 65, 70, 74, 75, 79, 89, 96]</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 301: [1, 6, 7, 13, 19, 33, 34, 42, 47, 54, 62, 68, 75, 80, 85, 86, 88, 93, 97, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 302: [5, 9, 16, 17, 22, 24, 26, 27, 33, 34, 42, 44, 59, 73, 75, 76, 78, 82, 90, 94]</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 303: [1, 2, 4, 5, 24, 25, 37, 40, 44, 45, 47, 50, 56, 61, 70, 76, 87, 89, 91, 95]</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 304: [4, 6, 8, 9, 31, 35, 41, 45, 50, 51, 52, 57, 59, 72, 73, 77, 78, 87, 94, 96]</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 305: [18, 24, 26, 28, 34, 36, 43, 55, 56, 62, 67, 69, 73, 75, 76, 85, 87, 90, 98, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 306: [1, 3, 11, 12, 15, 23, 24, 30, 34, 44, 49, 50, 54, 55, 66, 78, 87, 95, 97, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 307: [2, 3, 12, 13, 20, 24, 26, 30, 44, 47, 48, 56, 58, 69, 73, 75, 82, 88, 89, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 308: [1, 6, 16, 17, 20, 24, 30, 31, 37, 45, 53, 55, 63, 64, 67, 68, 71, 75, 82, 87]</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 309: [9, 10, 13, 29, 34, 35, 36, 43, 44, 48, 62, 65, 68, 70, 77, 83, 84, 90, 91, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 310: [2, 9, 15, 18, 37, 38, 40, 41, 43, 47, 50, 61, 67, 74, 79, 82, 85, 93, 94, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 311: [1, 4, 10, 24, 36, 38, 42, 43, 45, 50, 51, 58, 60, 64, 74, 76, 78, 86, 87, 90]</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 312: [7, 8, 16, 19, 22, 23, 26, 31, 32, 33, 44, 50, 54, 64, 67, 83, 85, 90, 96, 97]</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 313: [3, 17, 21, 25, 28, 34, 37, 41, 43, 45, 48, 49, 51, 60, 62, 63, 67, 76, 82, 90]</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 314: [9, 12, 19, 27, 35, 37, 44, 47, 48, 55, 58, 61, 64, 70, 74, 76, 89, 91, 95, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 315: [13, 14, 17, 19, 20, 21, 23, 25, 31, 32, 43, 44, 54, 60, 72, 78, 80, 86, 97, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 316: [8, 11, 14, 24, 26, 28, 33, 37, 39, 41, 44, 48, 49, 64, 72, 73, 76, 90, 99, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 317: [8, 11, 21, 34, 38, 40, 44, 45, 48, 49, 58, 62, 63, 64, 67, 69, 72, 84, 88, 89]</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 318: [4, 9, 12, 13, 17, 21, 23, 28, 31, 32, 40, 50, 65, 67, 74, 75, 83, 96, 97, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 319: [1, 3, 13, 15, 18, 22, 25, 30, 47, 57, 59, 60, 61, 66, 75, 77, 80, 89, 96, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 320: [2, 8, 10, 14, 19, 24, 28, 36, 40, 45, 54, 58, 61, 64, 65, 68, 76, 83, 85, 95]</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 321: [2, 3, 5, 10, 14, 16, 18, 34, 39, 49, 51, 53, 62, 71, 82, 86, 88, 93, 96, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 322: [17, 25, 38, 40, 43, 47, 49, 50, 53, 56, 58, 63, 67, 71, 75, 83, 85, 87, 89, 91]</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 323: [2, 17, 19, 24, 30, 32, 35, 45, 51, 52, 53, 60, 61, 65, 76, 77, 88, 89, 93, 97]</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 324: [4, 8, 13, 18, 20, 22, 27, 31, 36, 38, 40, 46, 47, 53, 62, 67, 74, 83, 86, 92]</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 325: [2, 7, 8, 13, 22, 33, 38, 44, 55, 67, 70, 72, 73, 77, 79, 82, 83, 93, 97, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 326: [4, 7, 12, 24, 37, 42, 46, 47, 51, 54, 56, 62, 64, 66, 68, 71, 82, 86, 93, 97]</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 327: [6, 18, 25, 30, 35, 47, 58, 59, 61, 66, 68, 74, 79, 86, 87, 88, 89, 93, 96, 97]</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 328: [2, 5, 6, 7, 11, 14, 17, 23, 42, 50, 52, 57, 63, 64, 67, 77, 78, 79, 87, 95]</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 329: [1, 2, 19, 23, 28, 31, 34, 35, 36, 39, 45, 47, 55, 57, 61, 76, 91, 93, 97, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 330: [6, 7, 15, 24, 34, 36, 37, 42, 45, 48, 49, 65, 70, 71, 75, 88, 92, 94, 97, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 331: [3, 5, 7, 21, 24, 26, 31, 34, 38, 42, 43, 60, 75, 77, 78, 82, 83, 84, 90, 92]</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 332: [7, 9, 13, 14, 24, 34, 40, 46, 49, 51, 59, 63, 67, 68, 70, 72, 74, 76, 79, 84]</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 333: [9, 14, 19, 22, 31, 38, 39, 41, 42, 45, 60, 63, 67, 72, 75, 85, 89, 93, 98, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 334: [1, 3, 7, 17, 19, 24, 33, 37, 50, 52, 65, 66, 67, 68, 78, 81, 86, 96, 97, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 335: [12, 13, 14, 18, 20, 21, 38, 41, 43, 44, 45, 50, 54, 55, 64, 67, 70, 71, 83, 89]</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 336: [7, 16, 22, 27, 29, 35, 44, 55, 57, 63, 65, 68, 69, 71, 74, 76, 78, 81, 84, 95]</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 337: [2, 10, 11, 20, 21, 22, 24, 26, 30, 34, 35, 37, 47, 48, 53, 62, 64, 76, 87, 91]</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 338: [5, 6, 10, 13, 18, 19, 28, 32, 44, 47, 48, 50, 51, 54, 58, 65, 77, 80, 85, 89]</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 339: [8, 10, 11, 13, 18, 20, 24, 25, 36, 50, 51, 55, 57, 64, 71, 74, 77, 84, 89, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 340: [5, 10, 16, 18, 21, 25, 37, 41, 43, 50, 56, 70, 71, 74, 86, 87, 91, 92, 93, 95]</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 341: [3, 4, 8, 13, 23, 26, 28, 43, 44, 51, 53, 56, 58, 62, 63, 67, 87, 88, 93, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 342: [18, 26, 38, 39, 45, 46, 54, 55, 58, 62, 65, 68, 71, 72, 78, 84, 85, 87, 89, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 343: [10, 14, 15, 21, 25, 49, 50, 51, 53, 56, 57, 58, 65, 66, 70, 73, 74, 83, 87, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 344: [16, 18, 21, 25, 27, 44, 48, 53, 61, 72, 74, 75, 81, 84, 87, 88, 89, 90, 94, 96]</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 345: [8, 10, 12, 16, 25, 30, 36, 39, 48, 51, 54, 56, 59, 62, 76, 77, 78, 86, 88, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 346: [2, 5, 11, 14, 16, 24, 39, 41, 44, 63, 72, 75, 76, 81, 86, 90, 94, 96, 99, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 347: [5, 6, 7, 11, 15, 17, 18, 21, 29, 71, 76, 78, 79, 82, 89, 90, 91, 93, 94, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 348: [4, 7, 9, 10, 20, 22, 29, 39, 42, 47, 49, 53, 64, 67, 79, 81, 90, 96, 98, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 349: [1, 11, 12, 13, 14, 17, 22, 29, 30, 33, 52, 58, 59, 60, 61, 75, 76, 84, 93, 97]</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 350: [2, 11, 12, 22, 25, 27, 34, 37, 40, 43, 44, 49, 55, 56, 57, 60, 61, 64, 77, 96]</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 351: [6, 8, 12, 21, 22, 24, 25, 26, 39, 41, 46, 53, 55, 56, 64, 67, 68, 70, 76, 77]</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 352: [3, 4, 7, 14, 15, 18, 39, 40, 44, 45, 46, 49, 51, 52, 60, 62, 81, 86, 90, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 353: [9, 12, 16, 21, 23, 24, 31, 43, 48, 50, 51, 62, 66, 75, 76, 84, 85, 87, 91, 93]</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 354: [1, 9, 23, 26, 28, 29, 32, 45, 47, 48, 53, 58, 60, 75, 77, 78, 81, 83, 87, 91]</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 355: [5, 12, 20, 21, 25, 34, 44, 45, 52, 55, 60, 65, 70, 72, 77, 80, 83, 91, 95, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 356: [3, 9, 11, 14, 21, 32, 38, 42, 43, 46, 62, 64, 66, 76, 78, 83, 89, 92, 93, 96]</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 357: [6, 7, 12, 14, 25, 34, 37, 38, 40, 45, 47, 51, 52, 54, 59, 60, 65, 81, 94, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 358: [12, 13, 16, 17, 20, 24, 27, 28, 33, 38, 40, 42, 55, 57, 60, 64, 68, 74, 83, 93]</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 359: [1, 16, 28, 31, 34, 35, 37, 38, 39, 44, 56, 63, 70, 72, 74, 75, 76, 88, 92, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 360: [1, 4, 5, 11, 27, 32, 35, 41, 43, 49, 51, 53, 56, 60, 68, 71, 78, 79, 86, 92]</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 361: [2, 3, 6, 7, 11, 12, 21, 40, 41, 43, 48, 50, 55, 58, 63, 64, 67, 80, 84, 95]</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 362: [1, 5, 13, 16, 17, 22, 23, 24, 34, 35, 47, 50, 55, 57, 62, 64, 65, 67, 69, 70]</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 363: [3, 20, 21, 23, 26, 30, 36, 43, 46, 54, 68, 69, 71, 72, 73, 78, 89, 91, 94, 97]</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 364: [3, 7, 11, 13, 14, 16, 26, 33, 39, 50, 51, 52, 58, 71, 74, 75, 76, 78, 82, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 365: [13, 15, 16, 19, 23, 25, 29, 30, 39, 42, 48, 54, 58, 61, 65, 66, 74, 78, 93, 94]</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 366: [1, 6, 9, 22, 29, 30, 40, 42, 45, 46, 48, 53, 59, 66, 70, 76, 77, 80, 91, 93]</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 367: [5, 8, 10, 19, 21, 23, 29, 30, 44, 52, 57, 60, 61, 65, 67, 74, 77, 78, 89, 96]</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 368: [3, 4, 8, 14, 21, 22, 25, 31, 32, 33, 37, 44, 54, 62, 63, 65, 77, 78, 84, 95]</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 369: [8, 10, 16, 18, 19, 21, 28, 32, 37, 47, 52, 60, 63, 70, 74, 78, 81, 86, 95, 96]</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 370: [6, 17, 18, 21, 28, 32, 33, 35, 37, 39, 41, 47, 51, 53, 54, 55, 57, 58, 88, 97]</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 371: [18, 22, 24, 25, 34, 35, 37, 40, 47, 49, 60, 61, 62, 66, 73, 87, 89, 91, 94, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 372: [7, 13, 19, 22, 44, 49, 51, 52, 56, 62, 64, 66, 71, 73, 78, 79, 84, 89, 97, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 373: [10, 14, 21, 30, 35, 36, 37, 39, 43, 53, 56, 59, 64, 66, 70, 74, 85, 90, 97, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 374: [1, 13, 16, 24, 25, 37, 38, 50, 55, 59, 65, 72, 75, 77, 87, 89, 90, 91, 92, 94]</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 375: [4, 5, 6, 16, 21, 22, 23, 38, 39, 51, 61, 68, 73, 75, 79, 85, 88, 91, 94, 96]</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 376: [4, 5, 22, 32, 40, 43, 45, 48, 55, 63, 66, 67, 68, 74, 87, 90, 91, 94, 98, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 377: [3, 20, 25, 31, 33, 36, 38, 47, 49, 50, 51, 60, 62, 67, 68, 70, 78, 81, 87, 97]</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 378: [3, 7, 13, 24, 29, 30, 47, 53, 54, 55, 59, 62, 65, 69, 73, 79, 81, 89, 91, 96]</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 379: [10, 12, 16, 18, 24, 28, 39, 40, 41, 42, 45, 61, 72, 73, 74, 77, 88, 89, 95, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 380: [4, 5, 17, 21, 26, 29, 35, 42, 47, 48, 51, 52, 58, 60, 61, 64, 71, 79, 82, 90]</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 381: [1, 3, 6, 10, 11, 20, 32, 34, 39, 40, 41, 62, 76, 81, 82, 83, 87, 88, 93, 96]</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 382: [6, 17, 20, 26, 27, 29, 31, 38, 41, 50, 72, 73, 75, 79, 82, 85, 86, 87, 89, 96]</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 383: [16, 17, 19, 20, 21, 34, 35, 42, 53, 56, 62, 65, 69, 78, 82, 84, 85, 89, 92, 94]</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 384: [2, 11, 16, 28, 29, 31, 32, 33, 34, 37, 46, 48, 64, 74, 79, 83, 85, 92, 97, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 385: [2, 6, 8, 12, 16, 21, 22, 33, 36, 44, 49, 50, 62, 65, 77, 78, 80, 84, 93, 96]</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 386: [3, 11, 13, 16, 23, 25, 35, 43, 52, 60, 61, 63, 73, 77, 78, 79, 85, 86, 93, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 387: [10, 11, 13, 24, 25, 31, 38, 53, 60, 61, 62, 64, 66, 67, 75, 77, 78, 80, 83, 93]</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 388: [7, 9, 11, 20, 22, 28, 30, 32, 37, 44, 49, 67, 71, 72, 74, 76, 82, 84, 86, 93]</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 389: [10, 12, 13, 15, 16, 17, 20, 21, 28, 33, 38, 49, 51, 54, 56, 63, 72, 96, 98, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 390: [6, 10, 14, 15, 22, 48, 51, 62, 64, 66, 67, 68, 78, 79, 82, 83, 84, 87, 97, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 391: [4, 9, 15, 18, 19, 29, 30, 35, 47, 50, 55, 57, 65, 66, 67, 68, 79, 88, 89, 91]</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 392: [5, 10, 18, 20, 28, 29, 36, 46, 54, 56, 57, 60, 63, 66, 70, 71, 82, 92, 93, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 393: [5, 7, 8, 10, 13, 14, 24, 26, 34, 36, 40, 53, 58, 60, 65, 68, 71, 72, 87, 89]</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 394: [6, 13, 20, 21, 30, 31, 32, 37, 42, 49, 52, 53, 61, 71, 74, 78, 84, 85, 88, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 395: [4, 11, 12, 14, 22, 25, 26, 27, 48, 50, 57, 59, 69, 72, 78, 80, 81, 88, 91, 93]</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 396: [4, 6, 10, 24, 33, 34, 38, 41, 42, 43, 55, 56, 70, 75, 77, 82, 84, 89, 95, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 397: [8, 9, 12, 19, 27, 32, 36, 45, 49, 58, 61, 62, 69, 74, 75, 83, 86, 94, 95, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 398: [3, 5, 6, 20, 21, 25, 28, 29, 37, 43, 51, 52, 53, 66, 70, 71, 76, 77, 79, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 399: [3, 6, 8, 14, 15, 18, 21, 32, 33, 39, 41, 43, 49, 57, 72, 77, 80, 85, 88, 94]</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 400: [4, 7, 17, 22, 34, 47, 55, 58, 60, 64, 66, 69, 71, 75, 79, 81, 88, 90, 93, 97]</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 401: [3, 14, 17, 19, 24, 29, 33, 38, 42, 44, 47, 50, 51, 56, 58, 67, 68, 70, 86, 93]</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 402: [7, 9, 10, 21, 25, 32, 36, 38, 42, 45, 47, 49, 53, 54, 59, 63, 68, 79, 95, 97]</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 403: [6, 7, 8, 12, 17, 31, 36, 41, 45, 59, 63, 68, 71, 76, 79, 85, 91, 92, 96, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 404: [5, 6, 12, 16, 28, 37, 39, 40, 43, 44, 45, 50, 63, 64, 66, 69, 70, 71, 81, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 405: [7, 12, 13, 15, 22, 23, 24, 26, 35, 47, 48, 54, 59, 72, 76, 77, 90, 93, 98, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 406: [1, 4, 8, 13, 21, 22, 30, 31, 34, 45, 56, 65, 68, 70, 80, 83, 84, 85, 91, 97]</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 407: [1, 10, 12, 17, 22, 23, 26, 40, 46, 47, 51, 57, 58, 65, 68, 77, 79, 93, 94, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 408: [1, 3, 4, 5, 28, 29, 31, 40, 57, 58, 65, 66, 68, 71, 82, 83, 87, 92, 93, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 409: [3, 5, 11, 25, 34, 36, 38, 40, 46, 47, 58, 59, 61, 64, 68, 74, 77, 81, 88, 94]</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 410: [7, 10, 13, 26, 29, 31, 33, 39, 49, 54, 56, 61, 62, 65, 73, 79, 83, 85, 86, 93]</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 411: [4, 11, 14, 17, 18, 22, 24, 28, 34, 40, 43, 47, 48, 50, 67, 79, 80, 81, 82, 92]</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 412: [8, 10, 15, 17, 19, 20, 22, 29, 37, 39, 48, 52, 60, 61, 64, 70, 71, 77, 81, 88]</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 413: [1, 12, 22, 29, 31, 33, 36, 44, 46, 53, 55, 57, 62, 69, 76, 80, 82, 85, 86, 87]</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 414: [1, 7, 18, 22, 24, 25, 28, 31, 36, 40, 47, 52, 62, 64, 66, 83, 84, 85, 92, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 415: [9, 12, 13, 21, 22, 31, 36, 40, 42, 43, 46, 52, 53, 54, 56, 70, 76, 86, 91, 97]</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 416: [1, 6, 8, 9, 10, 11, 13, 17, 35, 40, 56, 58, 65, 66, 67, 75, 81, 85, 86, 92]</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 417: [4, 5, 8, 15, 19, 21, 25, 47, 51, 52, 53, 57, 65, 71, 80, 82, 83, 94, 96, 97]</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 418: [2, 8, 11, 30, 33, 34, 35, 38, 45, 51, 53, 54, 65, 68, 70, 78, 80, 89, 97, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 419: [5, 11, 13, 14, 22, 38, 39, 40, 42, 44, 47, 49, 53, 74, 77, 88, 94, 97, 99, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 420: [10, 15, 16, 19, 32, 33, 37, 40, 42, 49, 52, 54, 56, 62, 70, 85, 89, 91, 98, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 421: [19, 21, 24, 27, 37, 38, 42, 43, 47, 67, 68, 77, 79, 84, 87, 89, 93, 97, 98, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 422: [8, 15, 16, 21, 26, 32, 37, 40, 44, 51, 52, 54, 57, 71, 75, 83, 90, 92, 95, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 423: [7, 14, 16, 18, 20, 22, 25, 32, 43, 50, 54, 55, 56, 59, 62, 69, 71, 82, 84, 86]</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 424: [5, 8, 13, 14, 17, 20, 26, 32, 35, 38, 48, 57, 58, 60, 61, 62, 69, 82, 90, 92]</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 425: [5, 10, 19, 27, 30, 33, 36, 45, 47, 53, 61, 63, 67, 70, 72, 78, 83, 84, 87, 96]</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 426: [14, 19, 23, 25, 26, 28, 32, 41, 45, 46, 53, 55, 66, 68, 71, 82, 84, 87, 96, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 427: [6, 11, 22, 23, 29, 33, 35, 36, 39, 43, 58, 59, 74, 77, 81, 84, 85, 87, 94, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 428: [8, 9, 14, 21, 23, 26, 34, 37, 41, 42, 47, 48, 51, 56, 59, 74, 75, 78, 99, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 429: [1, 15, 20, 21, 22, 34, 39, 43, 46, 50, 55, 57, 67, 68, 69, 75, 80, 84, 89, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 430: [1, 3, 11, 12, 13, 23, 27, 29, 31, 35, 42, 44, 52, 54, 59, 71, 76, 82, 84, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 431: [1, 3, 4, 12, 14, 26, 31, 32, 38, 43, 48, 50, 56, 57, 58, 66, 70, 71, 87, 93]</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 432: [20, 22, 24, 29, 32, 38, 46, 49, 52, 58, 63, 66, 73, 77, 80, 88, 91, 95, 96, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 433: [1, 6, 8, 11, 24, 25, 29, 34, 35, 39, 53, 64, 66, 74, 75, 80, 86, 90, 97, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 434: [3, 9, 15, 16, 21, 23, 30, 37, 53, 56, 59, 65, 67, 68, 69, 70, 73, 77, 79, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 435: [8, 9, 12, 13, 18, 22, 24, 28, 35, 38, 44, 52, 55, 67, 73, 80, 81, 85, 88, 96]</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 436: [1, 11, 14, 17, 24, 25, 27, 28, 35, 36, 38, 46, 53, 74, 76, 78, 79, 80, 83, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 437: [14, 17, 20, 22, 30, 34, 36, 42, 53, 61, 63, 67, 73, 79, 83, 84, 91, 94, 95, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 438: [6, 14, 18, 22, 28, 29, 35, 38, 41, 47, 51, 54, 55, 72, 74, 82, 84, 91, 92, 95]</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 439: [1, 18, 19, 27, 30, 31, 32, 36, 37, 45, 49, 57, 58, 59, 72, 74, 92, 95, 96, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 440: [6, 7, 8, 16, 20, 23, 28, 32, 37, 48, 49, 54, 62, 67, 71, 72, 83, 86, 89, 92]</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 441: [1, 4, 11, 17, 24, 25, 27, 37, 42, 50, 51, 57, 61, 65, 68, 73, 81, 83, 97, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 442: [1, 2, 5, 7, 15, 19, 20, 25, 33, 37, 42, 44, 50, 59, 66, 74, 80, 84, 86, 87]</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 443: [3, 5, 10, 19, 21, 24, 28, 30, 31, 36, 43, 44, 54, 61, 62, 75, 77, 80, 82, 93]</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 444: [1, 10, 12, 26, 27, 31, 33, 45, 47, 50, 52, 53, 57, 64, 68, 75, 76, 80, 82, 87]</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 445: [2, 8, 9, 13, 17, 18, 22, 25, 28, 33, 42, 49, 53, 55, 58, 71, 81, 83, 88, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 446: [3, 10, 20, 24, 26, 30, 33, 41, 44, 45, 51, 61, 62, 63, 64, 67, 74, 78, 85, 97]</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 447: [4, 11, 16, 22, 23, 25, 27, 32, 40, 45, 47, 56, 64, 69, 75, 79, 82, 88, 94, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 448: [5, 14, 18, 21, 25, 26, 28, 32, 33, 35, 41, 49, 52, 61, 70, 71, 73, 83, 98, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 449: [5, 8, 17, 19, 23, 25, 30, 34, 45, 50, 59, 60, 62, 73, 77, 82, 83, 85, 90, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 450: [1, 4, 10, 16, 19, 20, 22, 29, 31, 33, 37, 40, 59, 64, 70, 78, 80, 89, 98, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 451: [7, 14, 15, 25, 35, 36, 40, 41, 42, 43, 45, 47, 52, 53, 60, 63, 90, 93, 94, 95]</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 452: [3, 8, 15, 22, 33, 45, 50, 51, 52, 56, 59, 62, 71, 73, 83, 84, 86, 90, 92, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 453: [1, 6, 7, 10, 15, 17, 18, 19, 22, 24, 36, 39, 46, 53, 57, 58, 63, 65, 95, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 454: [7, 10, 11, 17, 19, 20, 24, 28, 29, 46, 49, 51, 53, 64, 70, 71, 72, 74, 91, 94]</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 455: [5, 18, 20, 31, 34, 47, 51, 52, 55, 58, 67, 68, 71, 75, 76, 77, 81, 84, 90, 91]</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 456: [5, 9, 10, 18, 25, 26, 27, 40, 43, 49, 50, 51, 53, 54, 67, 69, 76, 83, 89, 93]</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 457: [5, 14, 24, 31, 34, 36, 42, 47, 49, 50, 61, 69, 71, 78, 80, 86, 89, 90, 95, 96]</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 458: [3, 10, 20, 22, 30, 32, 34, 40, 43, 55, 56, 59, 72, 74, 75, 77, 89, 91, 92, 94]</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 459: [2, 14, 19, 21, 23, 29, 33, 34, 43, 45, 47, 50, 59, 68, 72, 82, 87, 91, 97, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 460: [1, 7, 15, 18, 21, 23, 31, 33, 38, 40, 41, 42, 46, 53, 57, 73, 79, 92, 96, 97]</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 461: [7, 8, 11, 13, 20, 27, 32, 34, 48, 50, 57, 59, 76, 77, 78, 80, 85, 86, 92, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 462: [1, 3, 6, 8, 12, 13, 16, 25, 28, 32, 40, 56, 60, 63, 76, 81, 82, 88, 90, 97]</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 463: [5, 10, 13, 18, 26, 27, 45, 48, 58, 68, 72, 77, 80, 82, 86, 87, 91, 92, 93, 97]</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 464: [4, 9, 10, 12, 19, 39, 45, 47, 50, 52, 53, 54, 70, 71, 73, 76, 86, 95, 99, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 465: [10, 16, 19, 20, 31, 36, 37, 40, 41, 47, 48, 56, 60, 61, 62, 79, 82, 83, 90, 94]</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 466: [3, 4, 9, 14, 17, 22, 25, 27, 32, 36, 40, 54, 56, 62, 65, 66, 70, 83, 87, 97]</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 467: [3, 8, 19, 22, 25, 34, 40, 42, 44, 48, 50, 65, 66, 69, 77, 78, 83, 88, 92, 93]</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 468: [15, 20, 23, 27, 32, 36, 38, 45, 46, 47, 48, 54, 68, 70, 74, 81, 89, 93, 97, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 469: [2, 4, 14, 20, 23, 33, 35, 38, 47, 53, 56, 60, 66, 79, 87, 88, 90, 93, 94, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 470: [3, 5, 11, 15, 19, 24, 34, 37, 51, 52, 56, 57, 64, 65, 68, 69, 71, 78, 83, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 471: [8, 10, 11, 17, 25, 26, 27, 28, 35, 40, 55, 59, 61, 62, 64, 70, 80, 85, 87, 95]</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 472: [4, 6, 11, 14, 16, 23, 24, 25, 44, 45, 46, 54, 60, 74, 78, 81, 84, 90, 94, 96]</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 473: [5, 9, 10, 11, 13, 16, 21, 40, 46, 48, 57, 58, 61, 62, 78, 80, 82, 86, 89, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 474: [2, 9, 12, 14, 17, 19, 26, 27, 29, 32, 39, 41, 49, 51, 67, 74, 86, 88, 95, 97]</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 475: [11, 16, 21, 31, 40, 42, 43, 48, 52, 54, 64, 71, 74, 78, 79, 85, 88, 91, 97, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 476: [1, 7, 22, 24, 26, 30, 33, 37, 38, 40, 42, 55, 57, 59, 74, 82, 84, 87, 95, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 477: [10, 14, 31, 39, 43, 51, 52, 55, 60, 63, 68, 69, 70, 78, 79, 82, 85, 89, 94, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 478: [7, 10, 15, 17, 22, 23, 33, 39, 41, 42, 45, 46, 48, 60, 71, 83, 89, 92, 96, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 479: [3, 8, 19, 20, 25, 29, 33, 35, 42, 47, 52, 55, 60, 66, 70, 71, 78, 86, 90, 92]</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 480: [13, 14, 27, 31, 33, 34, 39, 42, 54, 57, 59, 62, 69, 71, 76, 77, 81, 82, 83, 89]</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 481: [4, 8, 14, 20, 21, 26, 29, 36, 44, 45, 53, 57, 68, 69, 72, 75, 80, 82, 96, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 482: [1, 8, 11, 14, 15, 22, 34, 39, 51, 60, 69, 75, 78, 79, 85, 87, 89, 90, 93, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 483: [1, 10, 11, 19, 22, 25, 30, 32, 40, 44, 49, 58, 65, 68, 71, 74, 79, 84, 89, 90]</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 484: [7, 10, 12, 16, 21, 25, 29, 36, 38, 42, 44, 69, 73, 78, 85, 86, 88, 89, 92, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 485: [2, 3, 11, 19, 24, 28, 33, 37, 43, 45, 51, 52, 53, 55, 62, 64, 71, 72, 82, 84]</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 486: [2, 4, 5, 14, 21, 31, 33, 37, 38, 42, 43, 53, 54, 73, 77, 79, 80, 84, 85, 97]</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 487: [5, 14, 15, 18, 19, 26, 34, 38, 39, 45, 46, 48, 49, 51, 56, 60, 61, 82, 83, 95]</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 488: [3, 8, 10, 19, 23, 27, 34, 35, 43, 44, 47, 54, 61, 65, 67, 79, 85, 88, 89, 95]</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 489: [4, 5, 9, 12, 19, 26, 40, 45, 47, 48, 53, 54, 55, 57, 59, 64, 79, 87, 93, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 490: [6, 10, 13, 30, 31, 37, 43, 45, 47, 52, 56, 58, 70, 71, 74, 79, 80, 86, 89, 92]</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 491: [5, 15, 18, 20, 21, 33, 34, 41, 44, 47, 64, 68, 72, 76, 84, 85, 87, 90, 96, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 492: [1, 5, 12, 22, 23, 28, 32, 49, 60, 61, 64, 67, 68, 69, 77, 87, 92, 93, 94, 96]</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 493: [3, 11, 14, 19, 20, 22, 23, 26, 30, 31, 32, 43, 52, 59, 62, 64, 77, 81, 82, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 494: [10, 22, 25, 28, 32, 36, 43, 44, 46, 48, 53, 56, 60, 66, 69, 70, 83, 87, 90, 93]</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 495: [13, 18, 19, 25, 35, 43, 46, 47, 52, 55, 58, 72, 74, 81, 82, 83, 85, 92, 96, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 496: [9, 12, 21, 23, 35, 38, 43, 47, 51, 53, 59, 63, 66, 69, 78, 82, 86, 89, 91, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 497: [7, 9, 13, 21, 24, 29, 40, 42, 46, 49, 53, 54, 56, 58, 67, 83, 84, 87, 97, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 498: [13, 14, 16, 18, 19, 20, 23, 24, 33, 35, 45, 47, 64, 74, 78, 82, 85, 93, 96, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 499: [1, 3, 16, 33, 34, 41, 44, 45, 57, 58, 59, 65, 69, 70, 74, 84, 87, 89, 98, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 500: [13, 14, 28, 29, 30, 31, 33, 43, 44, 53, 61, 63, 64, 68, 69, 70, 81, 88, 89, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 501: [2, 5, 10, 19, 20, 28, 31, 32, 33, 35, 37, 63, 68, 69, 74, 76, 78, 86, 97, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 502: [2, 7, 8, 25, 27, 41, 49, 50, 51, 53, 55, 61, 63, 64, 65, 66, 78, 88, 91, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 503: [2, 5, 11, 20, 22, 33, 34, 46, 52, 58, 68, 71, 72, 76, 79, 80, 88, 90, 91, 95]</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 504: [1, 2, 12, 24, 33, 34, 35, 39, 46, 50, 55, 63, 65, 74, 76, 79, 89, 90, 94, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 505: [1, 3, 11, 13, 14, 15, 21, 31, 43, 44, 48, 52, 53, 59, 60, 62, 68, 74, 93, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 506: [6, 14, 22, 25, 29, 30, 42, 47, 54, 55, 63, 64, 66, 68, 74, 76, 77, 84, 91, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 507: [2, 12, 14, 17, 27, 30, 31, 51, 53, 64, 67, 79, 81, 83, 84, 85, 90, 93, 98, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 508: [10, 14, 17, 28, 30, 39, 40, 51, 54, 55, 56, 57, 60, 62, 66, 77, 79, 86, 94, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 509: [3, 8, 9, 13, 15, 22, 23, 25, 29, 31, 40, 46, 48, 50, 58, 59, 61, 64, 68, 84]</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 510: [6, 9, 12, 14, 20, 31, 34, 35, 36, 42, 46, 47, 50, 53, 59, 64, 80, 81, 83, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 511: [1, 2, 5, 10, 29, 32, 35, 36, 44, 47, 56, 60, 61, 65, 69, 74, 83, 84, 89, 94]</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 512: [2, 3, 5, 11, 17, 23, 27, 29, 30, 34, 46, 47, 48, 50, 52, 59, 62, 84, 88, 92]</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 513: [6, 8, 24, 25, 29, 31, 32, 33, 34, 45, 51, 52, 54, 78, 83, 86, 87, 88, 97, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 514: [3, 9, 11, 12, 14, 18, 19, 24, 25, 48, 50, 58, 64, 66, 78, 81, 88, 91, 94, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 515: [12, 13, 14, 16, 19, 21, 26, 28, 31, 42, 44, 59, 71, 73, 75, 88, 89, 93, 98, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 516: [2, 4, 7, 10, 15, 25, 27, 28, 30, 31, 40, 44, 45, 57, 58, 69, 73, 81, 82, 85]</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 517: [2, 4, 6, 9, 10, 11, 28, 32, 44, 57, 63, 67, 69, 73, 75, 86, 89, 93, 98, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 518: [7, 15, 17, 22, 24, 32, 33, 38, 39, 42, 46, 49, 50, 54, 62, 76, 77, 93, 97, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 519: [7, 9, 11, 13, 26, 36, 37, 43, 45, 50, 55, 58, 59, 61, 80, 84, 87, 88, 90, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 520: [7, 19, 23, 28, 29, 31, 33, 42, 46, 48, 61, 65, 66, 69, 71, 73, 82, 85, 94, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 521: [3, 6, 21, 27, 31, 35, 37, 41, 46, 47, 56, 62, 66, 67, 68, 70, 78, 81, 84, 96]</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 522: [3, 11, 20, 22, 24, 25, 26, 28, 35, 40, 50, 55, 57, 58, 64, 70, 78, 91, 93, 94]</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 523: [2, 13, 17, 20, 22, 24, 28, 35, 47, 48, 67, 69, 71, 78, 79, 82, 83, 86, 89, 97]</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 524: [7, 18, 19, 24, 27, 30, 33, 42, 54, 62, 65, 75, 79, 80, 83, 88, 89, 95, 98, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 525: [11, 12, 15, 16, 18, 25, 28, 32, 34, 40, 53, 55, 57, 61, 68, 73, 80, 81, 83, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 526: [4, 5, 6, 16, 18, 19, 24, 32, 35, 42, 48, 51, 56, 57, 58, 64, 80, 83, 89, 92]</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 527: [17, 19, 28, 31, 32, 33, 36, 38, 42, 59, 61, 62, 65, 66, 71, 79, 83, 89, 94, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 528: [14, 26, 30, 32, 38, 43, 47, 49, 52, 56, 57, 62, 67, 69, 76, 77, 90, 93, 95, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 529: [1, 6, 8, 16, 29, 31, 44, 50, 51, 53, 62, 66, 68, 72, 76, 80, 84, 86, 87, 90]</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 530: [3, 7, 13, 21, 23, 34, 41, 46, 51, 52, 53, 60, 63, 70, 76, 86, 91, 92, 94, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 531: [3, 5, 10, 12, 16, 19, 22, 27, 33, 46, 50, 51, 52, 62, 64, 66, 67, 75, 76, 79]</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 532: [1, 3, 4, 15, 21, 22, 25, 41, 43, 44, 46, 48, 51, 57, 63, 66, 75, 80, 92, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 533: [2, 4, 5, 7, 15, 36, 39, 46, 51, 54, 57, 60, 66, 75, 78, 84, 85, 88, 90, 91]</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 534: [8, 15, 24, 30, 33, 34, 43, 44, 49, 51, 54, 57, 60, 67, 72, 73, 78, 80, 93, 94]</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 535: [2, 19, 24, 25, 36, 37, 47, 48, 52, 53, 56, 66, 67, 74, 79, 83, 84, 85, 92, 97]</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 536: [3, 6, 10, 16, 23, 31, 32, 46, 55, 56, 65, 71, 75, 79, 80, 81, 84, 90, 98, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 537: [7, 16, 26, 27, 28, 30, 45, 53, 55, 58, 64, 67, 70, 73, 81, 84, 85, 94, 97, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 538: [4, 9, 12, 15, 19, 26, 30, 34, 43, 45, 46, 49, 54, 56, 59, 63, 69, 71, 78, 94]</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 539: [6, 7, 9, 13, 20, 29, 32, 33, 36, 38, 42, 48, 50, 61, 69, 71, 80, 90, 96, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 540: [6, 8, 12, 15, 17, 18, 19, 27, 34, 60, 64, 68, 71, 76, 78, 81, 89, 91, 96, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 541: [15, 17, 21, 24, 31, 35, 40, 42, 45, 52, 54, 56, 57, 58, 64, 71, 75, 80, 90, 95]</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 542: [6, 20, 28, 29, 30, 42, 43, 48, 49, 50, 53, 63, 65, 68, 72, 74, 80, 87, 97, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 543: [2, 11, 13, 21, 22, 38, 39, 47, 50, 51, 61, 64, 68, 73, 84, 85, 88, 93, 95, 97]</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 544: [2, 14, 15, 17, 27, 29, 31, 41, 47, 53, 54, 70, 73, 78, 82, 86, 89, 90, 96, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 545: [1, 3, 5, 13, 22, 30, 31, 39, 41, 53, 58, 60, 71, 76, 77, 84, 88, 90, 93, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 546: [10, 15, 18, 20, 23, 26, 30, 36, 37, 38, 46, 48, 57, 63, 66, 70, 74, 87, 93, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 547: [3, 15, 20, 33, 35, 37, 39, 46, 58, 60, 63, 69, 73, 75, 77, 85, 86, 87, 89, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 548: [8, 16, 18, 20, 25, 28, 37, 39, 40, 49, 57, 60, 63, 65, 69, 74, 83, 92, 95, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 549: [5, 7, 8, 26, 27, 30, 33, 36, 37, 42, 43, 48, 49, 59, 63, 64, 74, 84, 89, 96]</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 550: [2, 4, 5, 7, 9, 17, 23, 26, 29, 32, 36, 43, 44, 47, 57, 65, 66, 70, 72, 92]</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 551: [3, 6, 10, 11, 14, 15, 16, 17, 21, 26, 39, 42, 54, 58, 77, 81, 85, 87, 99, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 552: [6, 14, 17, 27, 28, 29, 30, 31, 37, 39, 44, 50, 53, 57, 62, 69, 85, 91, 95, 97]</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 553: [3, 5, 14, 26, 31, 32, 36, 37, 38, 50, 52, 63, 73, 74, 86, 90, 92, 96, 98, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 554: [4, 9, 16, 18, 22, 25, 32, 36, 39, 46, 47, 50, 58, 62, 63, 70, 71, 74, 81, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 555: [6, 9, 13, 18, 20, 33, 42, 43, 45, 48, 52, 53, 54, 73, 75, 76, 80, 82, 88, 93]</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 556: [8, 9, 23, 24, 26, 31, 38, 59, 62, 64, 70, 72, 74, 75, 76, 78, 87, 92, 95, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 557: [2, 3, 18, 21, 27, 32, 33, 34, 35, 41, 47, 48, 55, 56, 60, 67, 71, 78, 84, 89]</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 558: [7, 11, 15, 27, 29, 30, 35, 36, 37, 44, 52, 53, 55, 64, 65, 71, 76, 79, 91, 93]</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 559: [1, 12, 13, 15, 17, 18, 22, 29, 37, 49, 52, 60, 66, 67, 73, 79, 81, 83, 85, 93]</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 560: [8, 11, 12, 15, 16, 18, 19, 24, 31, 33, 44, 45, 48, 51, 54, 67, 68, 70, 90, 93]</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 561: [4, 13, 15, 19, 24, 28, 31, 41, 42, 44, 46, 48, 49, 55, 71, 73, 77, 87, 93, 94]</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 562: [3, 6, 9, 12, 20, 21, 30, 32, 44, 46, 57, 65, 68, 74, 82, 86, 87, 91, 95, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 563: [1, 17, 20, 22, 25, 33, 52, 55, 56, 57, 62, 65, 66, 68, 72, 75, 79, 92, 93, 95]</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 564: [3, 5, 9, 13, 21, 26, 28, 33, 37, 39, 46, 47, 48, 55, 58, 59, 60, 62, 64, 81]</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 565: [4, 6, 7, 15, 16, 19, 21, 32, 39, 41, 52, 62, 64, 69, 73, 81, 90, 92, 94, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 566: [3, 14, 29, 34, 36, 45, 47, 50, 51, 52, 56, 57, 62, 67, 68, 71, 88, 91, 93, 95]</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 567: [5, 8, 10, 17, 18, 23, 31, 32, 35, 36, 37, 45, 51, 54, 61, 63, 72, 82, 85, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 568: [3, 4, 14, 15, 19, 25, 28, 33, 35, 39, 41, 42, 52, 54, 66, 70, 81, 82, 90, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 569: [3, 5, 18, 24, 26, 29, 30, 32, 34, 41, 44, 61, 70, 71, 73, 77, 88, 91, 98, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 570: [21, 22, 25, 26, 28, 31, 35, 43, 48, 51, 53, 54, 56, 67, 71, 72, 76, 85, 91, 96]</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 571: [5, 9, 20, 22, 29, 33, 36, 47, 53, 54, 55, 66, 74, 77, 81, 82, 85, 89, 92, 93]</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 572: [9, 16, 17, 19, 22, 26, 27, 36, 37, 39, 47, 52, 55, 58, 61, 63, 65, 81, 93, 96]</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 573: [8, 10, 14, 17, 24, 31, 38, 44, 47, 53, 56, 60, 67, 71, 74, 78, 82, 95, 99, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 574: [1, 4, 5, 7, 8, 9, 19, 22, 24, 28, 47, 49, 55, 57, 71, 72, 78, 81, 92, 95]</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 575: [1, 2, 11, 15, 16, 19, 21, 22, 34, 42, 46, 52, 58, 65, 66, 77, 79, 80, 83, 84]</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 576: [9, 12, 15, 16, 21, 31, 32, 36, 37, 45, 48, 49, 51, 52, 59, 70, 73, 81, 91, 94]</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 577: [2, 8, 21, 29, 31, 32, 35, 38, 43, 50, 51, 55, 56, 61, 63, 69, 75, 77, 80, 88]</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 578: [10, 11, 13, 14, 18, 19, 31, 48, 52, 60, 70, 71, 72, 76, 77, 84, 91, 92, 94, 96]</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 579: [1, 2, 7, 11, 13, 17, 24, 25, 34, 35, 37, 42, 59, 66, 75, 81, 84, 87, 91, 94]</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 580: [1, 5, 12, 20, 29, 31, 35, 44, 46, 51, 55, 56, 59, 62, 70, 84, 86, 91, 98, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 581: [2, 11, 13, 15, 16, 22, 23, 36, 39, 47, 49, 51, 54, 56, 68, 69, 81, 90, 97, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 582: [6, 14, 16, 21, 26, 30, 33, 34, 36, 39, 46, 51, 63, 64, 65, 76, 85, 90, 91, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 583: [3, 4, 9, 15, 16, 24, 33, 35, 38, 43, 45, 51, 52, 53, 59, 66, 89, 93, 94, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 584: [5, 8, 28, 35, 46, 49, 52, 54, 57, 61, 65, 69, 70, 71, 74, 76, 89, 91, 97, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 585: [26, 28, 40, 43, 44, 48, 50, 51, 52, 59, 66, 67, 76, 77, 78, 84, 89, 95, 97, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 586: [3, 5, 6, 9, 10, 12, 13, 14, 15, 32, 35, 36, 55, 56, 63, 69, 92, 95, 96, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 587: [3, 9, 10, 13, 21, 25, 26, 33, 34, 36, 40, 42, 51, 52, 57, 66, 69, 75, 88, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 588: [4, 7, 12, 22, 24, 25, 38, 42, 45, 53, 56, 61, 67, 72, 73, 80, 82, 88, 89, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 589: [8, 21, 25, 35, 36, 37, 43, 56, 57, 61, 62, 66, 67, 82, 83, 84, 89, 94, 95, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 590: [5, 7, 10, 11, 18, 25, 31, 36, 39, 41, 50, 55, 59, 61, 64, 65, 66, 76, 86, 90]</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 591: [1, 7, 8, 9, 12, 15, 19, 32, 39, 41, 50, 62, 64, 67, 70, 71, 81, 85, 95, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 592: [2, 4, 6, 21, 31, 38, 54, 55, 56, 58, 64, 72, 75, 79, 82, 84, 89, 90, 96, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 593: [6, 7, 11, 24, 27, 36, 37, 47, 48, 58, 64, 66, 67, 70, 72, 77, 84, 91, 92, 94]</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 594: [1, 12, 15, 19, 22, 24, 27, 28, 40, 46, 50, 53, 56, 75, 77, 83, 88, 89, 95, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 595: [2, 6, 8, 9, 15, 17, 18, 19, 35, 37, 46, 55, 57, 60, 61, 62, 65, 68, 84, 97]</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 596: [5, 11, 15, 24, 25, 43, 46, 56, 60, 67, 69, 70, 71, 88, 89, 90, 91, 93, 94, 96]</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 597: [7, 9, 10, 12, 13, 19, 31, 32, 40, 44, 51, 56, 70, 75, 81, 87, 89, 92, 93, 96]</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 598: [1, 2, 4, 9, 11, 22, 35, 41, 45, 52, 53, 55, 64, 76, 79, 87, 88, 95, 96, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 599: [17, 19, 21, 25, 30, 32, 33, 34, 39, 48, 54, 62, 63, 69, 72, 75, 76, 79, 80, 90]</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 600: [10, 21, 26, 28, 31, 33, 34, 35, 41, 45, 47, 51, 53, 64, 65, 66, 79, 91, 95, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 601: [11, 12, 18, 23, 29, 37, 42, 43, 51, 52, 60, 64, 65, 67, 79, 83, 93, 94, 97, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 602: [9, 25, 26, 28, 29, 33, 34, 37, 45, 46, 51, 54, 56, 66, 73, 76, 82, 85, 93, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 603: [2, 25, 27, 29, 41, 43, 51, 52, 53, 55, 62, 69, 71, 72, 79, 84, 89, 90, 94, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 604: [12, 13, 15, 19, 24, 39, 41, 42, 45, 46, 49, 69, 72, 75, 78, 83, 85, 89, 93, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 605: [6, 10, 13, 17, 18, 28, 30, 33, 37, 39, 43, 44, 45, 52, 63, 72, 79, 83, 91, 94]</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 606: [7, 10, 21, 24, 32, 34, 37, 40, 43, 45, 48, 50, 53, 63, 68, 74, 77, 83, 89, 93]</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 607: [14, 20, 23, 27, 29, 43, 44, 48, 51, 54, 57, 63, 66, 71, 75, 79, 80, 87, 95, 97]</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 608: [5, 9, 11, 22, 24, 31, 35, 36, 41, 52, 57, 71, 78, 82, 83, 86, 88, 93, 94, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 609: [1, 16, 23, 28, 32, 33, 46, 48, 49, 50, 55, 58, 60, 63, 66, 69, 71, 75, 76, 83]</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 610: [2, 5, 7, 8, 11, 12, 14, 16, 26, 28, 29, 35, 40, 62, 70, 83, 86, 94, 96, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 611: [1, 9, 10, 24, 30, 32, 37, 47, 48, 50, 64, 66, 68, 70, 75, 79, 80, 82, 97, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 612: [2, 3, 11, 12, 19, 21, 25, 27, 29, 30, 33, 34, 43, 57, 61, 69, 71, 72, 86, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 613: [7, 8, 13, 14, 15, 17, 19, 24, 30, 31, 32, 34, 35, 41, 45, 55, 74, 76, 80, 90]</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 614: [4, 6, 17, 26, 27, 30, 35, 47, 48, 49, 54, 57, 66, 67, 70, 72, 76, 78, 80, 94]</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 615: [2, 9, 12, 18, 20, 24, 37, 38, 39, 44, 48, 65, 75, 76, 77, 80, 89, 96, 97, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 616: [2, 11, 13, 22, 23, 31, 33, 38, 41, 48, 62, 64, 65, 67, 71, 74, 83, 90, 95, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 617: [2, 9, 10, 11, 12, 14, 30, 32, 42, 44, 48, 49, 54, 57, 61, 75, 82, 95, 96, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 618: [8, 12, 14, 15, 16, 23, 24, 26, 31, 40, 45, 47, 51, 63, 64, 71, 78, 82, 85, 94]</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 619: [2, 5, 6, 8, 29, 30, 37, 46, 51, 55, 59, 63, 66, 67, 71, 77, 80, 82, 85, 91]</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 620: [1, 4, 8, 10, 23, 31, 37, 39, 41, 42, 43, 45, 51, 52, 62, 65, 76, 83, 93, 94]</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 621: [3, 13, 30, 33, 35, 36, 45, 47, 57, 59, 69, 71, 72, 73, 76, 78, 79, 82, 84, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 622: [1, 13, 15, 19, 24, 27, 33, 35, 38, 51, 55, 59, 68, 69, 74, 89, 93, 95, 96, 97]</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 623: [1, 4, 12, 14, 18, 23, 24, 27, 28, 34, 43, 47, 58, 62, 65, 69, 75, 87, 88, 94]</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 624: [13, 14, 18, 24, 30, 32, 40, 43, 44, 55, 64, 76, 78, 81, 87, 91, 94, 95, 97, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 625: [8, 12, 14, 38, 40, 44, 50, 52, 57, 58, 64, 66, 74, 76, 77, 90, 91, 93, 96, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 626: [1, 23, 41, 42, 46, 48, 52, 55, 56, 57, 58, 60, 63, 74, 75, 81, 92, 93, 98, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 627: [1, 13, 14, 18, 20, 28, 32, 36, 43, 47, 48, 53, 54, 55, 58, 65, 69, 75, 92, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 628: [6, 9, 11, 12, 14, 16, 18, 22, 27, 37, 42, 46, 49, 51, 62, 63, 69, 74, 86, 90]</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 629: [2, 10, 13, 21, 28, 31, 34, 36, 37, 38, 45, 50, 59, 62, 74, 81, 84, 86, 87, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 630: [2, 4, 6, 10, 17, 30, 41, 43, 53, 59, 62, 72, 73, 77, 83, 86, 87, 89, 93, 97]</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 631: [3, 6, 9, 12, 14, 31, 32, 34, 36, 42, 45, 48, 52, 54, 71, 78, 84, 85, 99, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 632: [12, 13, 17, 24, 30, 33, 35, 36, 38, 40, 47, 53, 54, 62, 63, 72, 80, 86, 91, 96]</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 633: [9, 22, 25, 26, 28, 33, 36, 37, 41, 44, 56, 61, 63, 66, 68, 75, 80, 90, 92, 96]</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 634: [1, 5, 10, 27, 32, 40, 46, 48, 49, 52, 57, 58, 61, 66, 67, 71, 75, 80, 82, 92]</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 635: [3, 6, 14, 21, 33, 35, 46, 51, 53, 55, 57, 60, 72, 85, 90, 92, 95, 96, 97, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 636: [2, 4, 5, 16, 30, 40, 41, 46, 50, 53, 54, 63, 69, 71, 73, 78, 81, 82, 83, 86]</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 637: [7, 9, 10, 14, 17, 20, 27, 29, 38, 46, 54, 59, 64, 69, 74, 77, 80, 81, 86, 96]</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 638: [11, 14, 19, 23, 24, 25, 26, 29, 36, 42, 44, 46, 47, 50, 56, 58, 64, 77, 86, 90]</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 639: [1, 6, 8, 10, 16, 21, 27, 36, 43, 45, 49, 51, 57, 61, 64, 72, 77, 79, 85, 92]</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 640: [1, 2, 3, 8, 11, 16, 20, 26, 27, 33, 38, 41, 43, 45, 52, 60, 73, 77, 92, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 641: [3, 5, 6, 8, 15, 17, 34, 35, 36, 48, 51, 57, 58, 63, 68, 70, 72, 75, 81, 84]</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 642: [2, 3, 7, 9, 10, 11, 18, 27, 29, 36, 37, 39, 42, 44, 53, 67, 90, 93, 94, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 643: [4, 5, 7, 16, 25, 31, 35, 38, 43, 44, 54, 60, 64, 66, 69, 70, 73, 81, 88, 92]</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 644: [11, 21, 22, 25, 28, 30, 33, 36, 46, 49, 54, 56, 72, 77, 78, 85, 88, 95, 96, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 645: [11, 12, 15, 17, 25, 28, 31, 34, 39, 40, 43, 44, 56, 64, 66, 74, 77, 84, 90, 91]</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 646: [3, 4, 5, 11, 12, 17, 25, 29, 41, 52, 54, 55, 63, 64, 66, 68, 69, 84, 88, 94]</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 647: [4, 7, 11, 14, 20, 21, 24, 25, 27, 29, 36, 39, 48, 50, 51, 57, 59, 65, 95, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 648: [3, 8, 10, 13, 15, 16, 28, 29, 32, 34, 37, 43, 50, 62, 72, 73, 74, 77, 78, 93]</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 649: [3, 7, 11, 21, 31, 33, 35, 37, 41, 47, 48, 50, 51, 52, 65, 72, 73, 83, 93, 97]</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 650: [10, 11, 12, 17, 21, 22, 39, 40, 45, 51, 53, 58, 59, 70, 73, 78, 82, 85, 88, 89]</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 651: [1, 4, 30, 36, 38, 43, 45, 47, 48, 50, 57, 59, 65, 66, 76, 80, 87, 89, 97, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 652: [2, 3, 5, 12, 26, 36, 42, 50, 54, 57, 58, 62, 63, 67, 69, 74, 79, 84, 92, 95]</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 653: [6, 8, 12, 13, 22, 25, 31, 41, 42, 46, 51, 57, 64, 67, 80, 81, 82, 85, 98, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 654: [7, 11, 13, 18, 19, 23, 27, 29, 30, 34, 51, 54, 59, 70, 75, 76, 77, 83, 87, 88]</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 655: [4, 21, 23, 28, 31, 32, 34, 35, 39, 46, 47, 50, 53, 60, 61, 68, 89, 93, 95, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 656: [10, 12, 14, 15, 18, 20, 21, 27, 28, 33, 36, 42, 44, 46, 49, 72, 77, 79, 82, 97]</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 657: [2, 6, 14, 20, 26, 28, 35, 45, 57, 58, 61, 64, 65, 71, 72, 74, 82, 94, 96, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 658: [1, 3, 5, 7, 22, 23, 36, 45, 50, 51, 62, 67, 71, 76, 78, 88, 89, 91, 94, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 659: [1, 5, 9, 13, 15, 26, 29, 30, 39, 40, 49, 53, 55, 65, 77, 80, 82, 84, 89, 92]</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 660: [3, 6, 7, 14, 18, 33, 36, 46, 56, 58, 63, 64, 66, 67, 70, 71, 73, 80, 82, 85]</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 661: [2, 5, 9, 22, 26, 36, 37, 39, 40, 48, 51, 57, 60, 62, 67, 77, 78, 87, 88, 89]</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 662: [7, 17, 21, 22, 28, 31, 33, 38, 43, 49, 60, 62, 67, 69, 70, 73, 82, 83, 89, 94]</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 663: [7, 9, 13, 14, 19, 23, 32, 38, 41, 43, 47, 54, 55, 57, 68, 69, 76, 82, 86, 89]</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 664: [4, 6, 9, 10, 11, 12, 14, 17, 18, 21, 24, 32, 45, 58, 59, 67, 72, 83, 88, 89]</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 665: [3, 8, 13, 19, 23, 26, 37, 40, 42, 43, 44, 52, 62, 72, 74, 78, 92, 96, 97, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 666: [5, 9, 13, 14, 22, 23, 28, 38, 44, 46, 48, 50, 58, 61, 63, 66, 81, 89, 90, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 667: [11, 16, 20, 22, 24, 28, 30, 31, 39, 40, 41, 48, 55, 66, 68, 79, 91, 94, 98, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 668: [2, 5, 14, 17, 28, 30, 33, 34, 41, 42, 51, 52, 59, 65, 72, 79, 82, 90, 96, 97]</t>
+        </is>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 669: [1, 3, 7, 10, 15, 20, 25, 31, 32, 36, 50, 55, 60, 70, 73, 74, 81, 83, 84, 86]</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 670: [5, 6, 11, 26, 29, 36, 37, 45, 47, 48, 51, 58, 60, 61, 63, 72, 75, 78, 89, 94]</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 671: [1, 9, 25, 27, 28, 34, 37, 41, 53, 59, 63, 66, 71, 73, 78, 82, 85, 92, 97, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 672: [4, 9, 13, 18, 19, 22, 25, 29, 31, 45, 46, 51, 57, 60, 68, 73, 79, 84, 92, 97]</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 673: [1, 8, 16, 28, 44, 45, 46, 53, 60, 67, 73, 77, 82, 83, 86, 88, 91, 92, 97, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 674: [4, 6, 11, 12, 13, 24, 30, 31, 32, 39, 44, 52, 69, 73, 75, 83, 86, 89, 92, 96]</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 675: [3, 5, 6, 21, 22, 23, 25, 26, 31, 43, 54, 56, 62, 63, 67, 76, 79, 86, 97, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 676: [5, 13, 15, 17, 24, 25, 30, 33, 38, 45, 46, 53, 56, 57, 58, 70, 77, 79, 80, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 677: [10, 12, 18, 23, 29, 35, 36, 45, 46, 49, 52, 57, 68, 72, 86, 88, 90, 94, 95, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 678: [4, 5, 11, 14, 16, 24, 30, 31, 33, 34, 44, 55, 56, 57, 67, 71, 74, 79, 85, 88]</t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 679: [6, 10, 14, 18, 22, 30, 39, 43, 46, 47, 51, 54, 58, 59, 64, 70, 74, 81, 82, 92]</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 680: [1, 10, 11, 12, 15, 29, 33, 35, 39, 43, 48, 67, 69, 76, 79, 85, 87, 89, 90, 92]</t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 681: [3, 12, 13, 16, 19, 22, 27, 30, 34, 36, 38, 40, 42, 49, 50, 54, 58, 67, 85, 88]</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 682: [7, 8, 10, 25, 33, 35, 38, 39, 40, 42, 47, 50, 57, 60, 66, 69, 76, 89, 90, 96]</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 683: [6, 10, 12, 13, 16, 25, 26, 41, 42, 47, 49, 50, 62, 67, 69, 72, 84, 86, 90, 92]</t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 684: [7, 9, 13, 15, 21, 26, 41, 43, 44, 48, 49, 55, 63, 65, 67, 69, 73, 86, 95, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 685: [3, 5, 9, 12, 17, 24, 27, 28, 29, 32, 33, 35, 37, 39, 50, 58, 61, 62, 70, 97]</t>
+        </is>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 686: [12, 17, 23, 24, 34, 38, 41, 42, 44, 51, 54, 57, 64, 77, 81, 82, 86, 87, 93, 96]</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 687: [3, 8, 11, 12, 21, 22, 31, 36, 39, 43, 54, 57, 59, 76, 80, 85, 93, 94, 95, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 688: [4, 8, 9, 11, 15, 16, 17, 22, 23, 31, 33, 38, 50, 57, 60, 62, 67, 71, 89, 93]</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 689: [2, 3, 7, 16, 37, 38, 41, 49, 51, 62, 66, 68, 77, 79, 82, 84, 86, 87, 92, 94]</t>
+        </is>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 690: [6, 13, 16, 19, 23, 25, 29, 35, 37, 45, 52, 54, 56, 57, 62, 71, 74, 76, 79, 82]</t>
+        </is>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 691: [6, 23, 28, 32, 37, 38, 43, 44, 47, 48, 60, 77, 80, 81, 83, 91, 95, 96, 98, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 692: [2, 6, 8, 16, 20, 29, 30, 42, 44, 49, 62, 66, 67, 72, 74, 76, 79, 80, 85, 90]</t>
+        </is>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 693: [7, 8, 9, 14, 23, 28, 42, 43, 54, 60, 67, 70, 75, 82, 86, 88, 89, 94, 96, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 694: [6, 8, 10, 11, 15, 17, 20, 24, 29, 32, 36, 44, 46, 53, 57, 65, 72, 79, 91, 95]</t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 695: [3, 5, 16, 25, 27, 28, 39, 43, 53, 60, 66, 68, 78, 80, 81, 89, 90, 95, 97, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 696: [1, 7, 9, 11, 14, 19, 27, 31, 34, 42, 44, 45, 46, 47, 53, 60, 61, 71, 80, 96]</t>
+        </is>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 697: [8, 13, 19, 20, 26, 29, 31, 33, 34, 46, 48, 55, 60, 62, 69, 75, 77, 86, 88, 97]</t>
+        </is>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 698: [6, 7, 24, 25, 27, 29, 32, 33, 39, 41, 56, 66, 77, 81, 82, 86, 88, 90, 96, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 699: [4, 10, 20, 24, 25, 32, 33, 37, 39, 43, 60, 64, 70, 71, 76, 79, 82, 86, 92, 96]</t>
+        </is>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 700: [2, 12, 20, 27, 31, 43, 45, 46, 48, 51, 53, 58, 62, 75, 78, 86, 87, 89, 91, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 701: [15, 17, 19, 21, 30, 36, 39, 41, 42, 44, 46, 57, 61, 68, 69, 75, 80, 85, 87, 94]</t>
+        </is>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 702: [8, 10, 11, 14, 18, 19, 21, 26, 35, 40, 45, 46, 49, 53, 57, 62, 69, 70, 74, 94]</t>
+        </is>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 703: [12, 13, 18, 20, 24, 29, 30, 34, 35, 43, 45, 48, 51, 55, 67, 75, 78, 80, 82, 96]</t>
+        </is>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 704: [2, 17, 18, 20, 21, 36, 37, 43, 59, 63, 67, 68, 75, 76, 78, 81, 88, 91, 93, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 705: [3, 5, 15, 19, 20, 29, 34, 45, 47, 48, 56, 61, 64, 67, 70, 74, 81, 88, 90, 96]</t>
+        </is>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 706: [14, 18, 19, 22, 34, 48, 50, 55, 59, 61, 67, 68, 69, 70, 76, 78, 80, 85, 89, 97]</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 707: [2, 10, 13, 17, 21, 25, 26, 27, 30, 41, 43, 53, 69, 73, 74, 79, 81, 83, 91, 95]</t>
+        </is>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 708: [2, 8, 10, 16, 21, 32, 35, 36, 41, 45, 51, 61, 64, 71, 79, 80, 88, 92, 97, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 709: [11, 14, 19, 24, 30, 37, 40, 44, 46, 48, 50, 53, 58, 66, 80, 85, 86, 87, 88, 93]</t>
+        </is>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 710: [1, 3, 6, 10, 15, 19, 21, 24, 27, 28, 36, 38, 55, 58, 69, 72, 77, 81, 83, 97]</t>
+        </is>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 711: [3, 8, 13, 17, 39, 46, 52, 53, 54, 56, 66, 73, 75, 82, 84, 85, 87, 90, 93, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 712: [9, 11, 21, 22, 41, 44, 49, 55, 56, 58, 59, 67, 68, 70, 73, 76, 82, 83, 88, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 713: [8, 14, 17, 30, 34, 38, 45, 52, 54, 59, 60, 64, 65, 71, 74, 78, 80, 83, 87, 95]</t>
+        </is>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 714: [13, 16, 24, 35, 37, 42, 45, 47, 49, 64, 66, 68, 76, 79, 86, 88, 90, 91, 97, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 715: [2, 6, 8, 18, 25, 26, 30, 37, 41, 43, 59, 60, 63, 65, 70, 71, 74, 80, 86, 89]</t>
+        </is>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 716: [4, 5, 6, 10, 15, 17, 25, 26, 30, 33, 41, 45, 60, 67, 74, 75, 80, 90, 97, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 717: [5, 6, 8, 13, 19, 20, 30, 36, 55, 59, 62, 69, 76, 77, 80, 81, 82, 86, 90, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 718: [4, 6, 9, 27, 29, 34, 36, 42, 47, 53, 56, 57, 58, 66, 71, 79, 82, 84, 86, 92]</t>
+        </is>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 719: [1, 5, 12, 21, 26, 27, 43, 54, 55, 63, 67, 70, 74, 80, 83, 86, 91, 94, 95, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 720: [9, 10, 25, 32, 34, 39, 40, 45, 48, 49, 50, 67, 73, 82, 85, 89, 92, 98, 99, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 721: [5, 8, 27, 28, 31, 33, 35, 36, 50, 53, 58, 70, 71, 75, 76, 78, 80, 85, 93, 96]</t>
+        </is>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 722: [2, 9, 11, 12, 13, 16, 20, 24, 33, 39, 54, 57, 60, 65, 67, 68, 87, 92, 93, 97]</t>
+        </is>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 723: [4, 10, 11, 16, 17, 21, 24, 29, 33, 38, 39, 44, 55, 56, 73, 77, 78, 84, 87, 97]</t>
+        </is>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 724: [3, 8, 11, 14, 21, 23, 25, 39, 42, 45, 46, 54, 56, 60, 64, 74, 84, 85, 88, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 725: [2, 5, 12, 14, 16, 20, 28, 30, 32, 43, 51, 62, 63, 69, 72, 74, 85, 88, 89, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 726: [1, 3, 6, 15, 20, 23, 35, 41, 42, 43, 61, 65, 66, 73, 81, 83, 87, 88, 93, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 727: [2, 4, 6, 9, 15, 18, 21, 26, 34, 36, 45, 48, 52, 67, 69, 75, 77, 79, 97, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 728: [8, 9, 10, 11, 21, 31, 35, 37, 43, 46, 48, 57, 68, 70, 78, 81, 86, 94, 96, 97]</t>
+        </is>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 729: [2, 5, 9, 12, 16, 22, 23, 32, 40, 44, 49, 51, 57, 59, 61, 69, 70, 91, 98, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 730: [4, 7, 10, 28, 35, 36, 52, 59, 60, 61, 62, 66, 68, 69, 82, 86, 90, 91, 92, 96]</t>
+        </is>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 731: [6, 8, 10, 11, 17, 18, 20, 23, 33, 38, 40, 43, 57, 62, 64, 71, 72, 77, 79, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 732: [2, 8, 18, 25, 38, 39, 44, 45, 47, 52, 58, 70, 77, 82, 83, 85, 91, 92, 96, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 733: [4, 6, 7, 10, 20, 24, 31, 40, 41, 46, 54, 55, 57, 71, 73, 75, 79, 80, 90, 91]</t>
+        </is>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 734: [19, 32, 34, 35, 39, 44, 46, 47, 49, 52, 56, 57, 69, 71, 86, 88, 91, 95, 98, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 735: [2, 8, 11, 12, 19, 25, 29, 37, 43, 45, 63, 65, 68, 77, 84, 91, 92, 96, 99, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 736: [12, 18, 29, 30, 34, 39, 48, 53, 63, 68, 70, 75, 77, 80, 81, 89, 90, 94, 98, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 737: [7, 11, 12, 26, 28, 29, 44, 47, 52, 53, 65, 69, 70, 71, 72, 73, 78, 85, 87, 93]</t>
+        </is>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 738: [4, 10, 12, 15, 19, 26, 29, 33, 37, 38, 50, 61, 62, 65, 69, 71, 78, 84, 95, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 739: [2, 9, 11, 16, 19, 27, 30, 43, 47, 49, 54, 59, 61, 72, 76, 77, 83, 89, 94, 95]</t>
+        </is>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 740: [4, 7, 8, 19, 27, 30, 31, 33, 34, 37, 38, 44, 45, 49, 62, 64, 74, 89, 93, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 741: [1, 5, 6, 17, 20, 23, 31, 32, 42, 47, 50, 60, 69, 70, 75, 77, 83, 89, 94, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 742: [4, 6, 9, 16, 26, 28, 30, 34, 44, 47, 51, 54, 56, 58, 70, 72, 91, 92, 93, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 743: [5, 9, 13, 16, 27, 33, 40, 41, 49, 50, 51, 71, 72, 76, 78, 79, 81, 86, 97, 98]</t>
+        </is>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 744: [7, 14, 17, 20, 26, 30, 31, 32, 44, 55, 59, 68, 70, 72, 74, 77, 82, 85, 93, 96]</t>
+        </is>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 745: [3, 9, 24, 31, 33, 36, 37, 41, 42, 54, 61, 62, 68, 70, 71, 73, 78, 86, 90, 91]</t>
+        </is>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 746: [4, 9, 15, 20, 21, 28, 33, 37, 39, 46, 48, 64, 67, 68, 70, 78, 79, 85, 86, 91]</t>
+        </is>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 747: [4, 7, 13, 14, 23, 27, 39, 50, 54, 55, 58, 62, 63, 69, 81, 85, 89, 90, 91, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 748: [12, 21, 22, 24, 25, 27, 37, 40, 44, 48, 53, 56, 57, 61, 65, 70, 73, 77, 93, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 749: [10, 14, 15, 19, 34, 35, 37, 41, 43, 44, 51, 61, 66, 71, 78, 87, 90, 92, 96, 99]</t>
+        </is>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jogo 750: [1, 5, 8, 10, 13, 14, 15, 18, 26, 33, 34, 42, 47, 48, 55, 58, 86, 92, 94, 100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="inlineStr">
         <is>
           <t>-=-=-=-=-= &lt; BOA SORTE! &gt; -=-=-=-=-=</t>
         </is>
